--- a/EE 564 - Take Home Exam.xlsx
+++ b/EE 564 - Take Home Exam.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elif\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elife\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD1D7A3-26E6-4B86-B6F1-B0DD937FBB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C490EB3F-1444-450D-A30E-74A483EE92A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" tabRatio="776" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.MOTOR DATA" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="94">
   <si>
     <t>Delta</t>
   </si>
@@ -211,18 +211,6 @@
     <t>kws</t>
   </si>
   <si>
-    <t>Bar current (Ib)</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
     <t>Do_r (mm)</t>
   </si>
   <si>
@@ -292,20 +280,60 @@
     <t>Magetizing Reactance Calculation</t>
   </si>
   <si>
-    <t>Resultant MMF (FR)</t>
-  </si>
-  <si>
     <t>Core Resistance Calculation</t>
+  </si>
+  <si>
+    <t>Mass (Kg)</t>
+  </si>
+  <si>
+    <t>Mean B (T)</t>
+  </si>
+  <si>
+    <t>Core loss ratio</t>
+  </si>
+  <si>
+    <t>Core loss (Watt)</t>
+  </si>
+  <si>
+    <t>Rc (Ω)</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Bar current (Ib, A)</t>
+  </si>
+  <si>
+    <t>Magnetizing Current (A)</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Synchronous speed</t>
+  </si>
+  <si>
+    <t>Slip</t>
+  </si>
+  <si>
+    <t>Synchronous speed (rpm)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="170" formatCode="0.000000"/>
-    <numFmt numFmtId="172" formatCode="0.0000"/>
-    <numFmt numFmtId="173" formatCode="0.000"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -551,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -569,90 +597,80 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1657,27 +1675,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911A2C45-8D9F-484E-AD8C-8733D7AE7273}">
   <dimension ref="B6:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5:T18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="S6" s="44" t="s">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="S6" s="29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
       <c r="C7" s="10" t="s">
         <v>1</v>
@@ -1689,7 +1707,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1699,7 +1717,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="2:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
         <v>18</v>
@@ -1709,7 +1727,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>0</v>
@@ -1717,7 +1735,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="2:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="5" t="s">
         <v>17</v>
@@ -1735,7 +1753,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
       <c r="C11" s="7" t="s">
         <v>30</v>
@@ -1744,44 +1762,43 @@
         <v>2</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <v>37</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="F12" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="8">
+        <f>120*D10/D11</f>
+        <v>3000</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="2:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="4">
-        <v>40</v>
-      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="2:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="5" t="s">
         <v>16</v>
@@ -1790,16 +1807,16 @@
         <v>250</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="6">
-        <v>36</v>
+      <c r="F14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="4">
+        <v>40</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="2:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="5" t="s">
         <v>6</v>
@@ -1809,38 +1826,38 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="6">
+        <v>36</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B16" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="6">
+        <v>24.2</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G16" s="6">
         <f>11+11</f>
         <v>22</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="2:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="B16" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="6">
-        <v>24.2</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="6">
-        <v>2</v>
-      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B17" s="38"/>
-      <c r="C17" s="39" t="s">
+    <row r="17" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B17" s="41"/>
+      <c r="C17" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="6">
@@ -1848,34 +1865,33 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="42">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="G17" s="6">
+        <v>2</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="40"/>
-      <c r="C18" s="41" t="s">
+    <row r="18" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B18" s="42"/>
+      <c r="C18" s="27" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="6">
         <v>103</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="8">
-        <f>5*1.1</f>
-        <v>5.5</v>
+      <c r="F18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="6">
+        <v>15</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="7" t="s">
         <v>12</v>
@@ -1884,134 +1900,121 @@
         <v>0.13</v>
       </c>
       <c r="E19" s="2"/>
+      <c r="F19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="8">
+        <f>5*1.1</f>
+        <v>5.5</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-    </row>
-    <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B21" s="46" t="s">
+      <c r="E20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B21" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="4">
         <v>300</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-    </row>
-    <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B22" s="46"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B22" s="43"/>
       <c r="C22" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="6">
         <v>170</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-    </row>
-    <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B23" s="46"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B23" s="43"/>
       <c r="C23" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D23" s="6">
         <v>13</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-    </row>
-    <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B24" s="46"/>
+    </row>
+    <row r="24" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B24" s="43"/>
       <c r="C24" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D24" s="6">
         <v>24</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-    </row>
-    <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B25" s="46"/>
+    </row>
+    <row r="25" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B25" s="43"/>
       <c r="C25" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="18">
+        <v>65</v>
+      </c>
+      <c r="D25" s="6">
         <v>3.1</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-    </row>
-    <row r="26" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="46"/>
-      <c r="C26" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="15">
+    </row>
+    <row r="26" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="43"/>
+      <c r="C26" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="8">
         <v>0.87</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B28" s="20" t="s">
+    <row r="27" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B28" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>60</v>
+      <c r="C28" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="D28" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B29" s="20"/>
+    <row r="29" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B29" s="44"/>
       <c r="C29" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="6">
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B30" s="20"/>
+    <row r="30" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B30" s="44"/>
       <c r="C30" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D30" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="20"/>
-      <c r="C31" s="14" t="s">
-        <v>73</v>
+    <row r="31" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="44"/>
+      <c r="C31" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="D31" s="8">
         <v>24</v>
@@ -2030,26 +2033,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38C05E5-E05C-4416-A759-C6C56C53CC86}">
-  <dimension ref="B3:J20"/>
+  <dimension ref="B3:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="G3" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
       <c r="C4" s="10" t="s">
         <v>35</v>
@@ -2059,191 +2062,146 @@
       <c r="F4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="33" t="s">
+    <row r="5" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="15">
         <v>54</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B7" s="33"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="45"/>
       <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="16">
         <v>70</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-    </row>
-    <row r="8" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B8" s="33"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="45"/>
       <c r="C8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="16">
         <f>954*3</f>
         <v>2862</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="33"/>
-      <c r="C9" s="14" t="s">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="45"/>
+      <c r="C9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="17">
         <f>1970*3</f>
         <v>5910</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B10" s="21"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-    </row>
-    <row r="11" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B11" s="21"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-    </row>
-    <row r="12" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B12" s="21"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-    </row>
-    <row r="13" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-    </row>
-    <row r="14" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-    </row>
-    <row r="15" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B15" s="32" t="s">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="14"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="14"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="14"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B15" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="15">
         <v>380</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-    </row>
-    <row r="16" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B16" s="32"/>
-      <c r="C16" s="27" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B16" s="46"/>
+      <c r="C16" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="16">
         <v>17.5</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="2:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B17" s="32"/>
-      <c r="C17" s="27" t="s">
+      <c r="E16" s="11"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B17" s="46"/>
+      <c r="C17" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="16">
         <v>2640</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-    </row>
-    <row r="18" spans="2:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B18" s="32"/>
-      <c r="C18" s="27" t="s">
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B18" s="46"/>
+      <c r="C18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="16">
         <v>11300</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-    </row>
-    <row r="19" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="32"/>
-      <c r="C19" s="28" t="s">
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="46"/>
+      <c r="C19" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="17">
         <v>0.10199999999999999</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2257,19 +2215,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43D7B3F-248B-4332-8FCD-DF6D0384BDD4}">
-  <dimension ref="C5:Y28"/>
+  <dimension ref="C5:V28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:25" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:22" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C5" s="10" t="s">
         <v>40</v>
       </c>
@@ -2284,379 +2242,158 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="3:25" ht="18" x14ac:dyDescent="0.35">
-      <c r="C7" s="56" t="s">
+    <row r="7" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="39">
         <f>'2.TEST DATA'!D19*3/2</f>
         <v>0.153</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-    </row>
-    <row r="8" spans="3:25" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="23">
         <f>'2.TEST DATA'!D18/'1.MOTOR DATA'!D9/('2.TEST DATA'!D16/SQRT(3))^2</f>
         <v>36.897959183673471</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-    </row>
-    <row r="9" spans="3:25" ht="18" x14ac:dyDescent="0.35">
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="23">
         <f>4*'2.TEST DATA'!D9/'1.MOTOR DATA'!D9/('2.TEST DATA'!D7/SQRT(3))^2</f>
         <v>4.8244897959183675</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-    </row>
-    <row r="10" spans="3:25" ht="18" x14ac:dyDescent="0.35">
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+    </row>
+    <row r="10" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="23">
         <f>'2.TEST DATA'!D8/'1.MOTOR DATA'!D9/('2.TEST DATA'!D7/SQRT(3))^2</f>
         <v>0.58408163265306123</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-    </row>
-    <row r="11" spans="3:25" ht="18" x14ac:dyDescent="0.35">
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+    </row>
+    <row r="11" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="23">
         <f>'2.TEST DATA'!D17-'2.TEST DATA'!D17*0.01-'1.MOTOR DATA'!D9*('2.TEST DATA'!D16/SQRT(3))^2*'3.PARAMETERS (FROM TEST DATA)'!D7</f>
         <v>2566.7437500000001</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-    </row>
-    <row r="12" spans="3:25" ht="18" x14ac:dyDescent="0.35">
-      <c r="C12" s="53" t="s">
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C12" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="37">
         <f>'1.MOTOR DATA'!D9*'2.TEST DATA'!D15^2/'3.PARAMETERS (FROM TEST DATA)'!D11</f>
         <v>168.77415207497828</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-    </row>
-    <row r="13" spans="3:25" ht="18" x14ac:dyDescent="0.35">
-      <c r="C13" s="45" t="s">
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+    </row>
+    <row r="13" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C13" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-    </row>
-    <row r="14" spans="3:25" ht="18" x14ac:dyDescent="0.35">
-      <c r="C14" s="53" t="s">
+      <c r="D13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+    </row>
+    <row r="14" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C14" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="37">
         <f>(2*D8-SQRT(4*D8^2-4*D9*D8))/2</f>
         <v>2.4967155383023254</v>
       </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-    </row>
-    <row r="15" spans="3:25" ht="18" x14ac:dyDescent="0.35">
-      <c r="C15" s="53" t="s">
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+    </row>
+    <row r="15" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C15" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15" s="37">
         <f>D14</f>
         <v>2.4967155383023254</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-    </row>
-    <row r="16" spans="3:25" ht="18" x14ac:dyDescent="0.35">
-      <c r="C16" s="53" t="s">
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+    </row>
+    <row r="16" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C16" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="37">
         <f>D8-D14</f>
         <v>34.401243645371146</v>
       </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-    </row>
-    <row r="17" spans="3:25" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="49" t="s">
+      <c r="P16" s="14"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+    </row>
+    <row r="17" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="32">
         <f>(D10-D7)*((D15+D16)/D16)^2</f>
         <v>0.49592491208751244</v>
       </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="H28" s="44" t="s">
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="29" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2671,350 +2408,333 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FE65C8-62DE-4C8C-ACD7-09FA947C1097}">
-  <dimension ref="B5:G36"/>
+  <dimension ref="C5:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F31" sqref="C30:F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="34.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C5" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" spans="2:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="19"/>
-      <c r="C8" s="59" t="s">
+    <row r="8" spans="3:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="59"/>
-    </row>
-    <row r="9" spans="2:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="B9" s="19"/>
+      <c r="D8" s="48"/>
+      <c r="F8" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="48"/>
+    </row>
+    <row r="9" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="15">
         <v>1.7199999999999999E-8</v>
       </c>
-      <c r="E9" s="19"/>
       <c r="F9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="47">
+      <c r="G9" s="15">
         <v>0.95499999999999996</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="B10" s="19"/>
-      <c r="C10" s="51" t="s">
+    <row r="10" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C10" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="48">
-        <f>'1.MOTOR DATA'!G14/'1.MOTOR DATA'!D9/'1.MOTOR DATA'!D11</f>
+      <c r="D10" s="16">
+        <f>'1.MOTOR DATA'!G15/'1.MOTOR DATA'!D9/'1.MOTOR DATA'!D11</f>
         <v>6</v>
       </c>
-      <c r="E10" s="19"/>
       <c r="F10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="31">
-        <f>2*G9*D11*'1.MOTOR DATA'!D9/'1.MOTOR DATA'!G13*('1.MOTOR DATA'!G11/3/'1.MOTOR DATA'!G10)</f>
+        <v>88</v>
+      </c>
+      <c r="G10" s="23">
+        <f>2*G9*D11*'1.MOTOR DATA'!D9/'1.MOTOR DATA'!G14*('1.MOTOR DATA'!G11/3/'1.MOTOR DATA'!G10)</f>
         <v>0.6137131578947369</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="B11" s="19"/>
+    <row r="11" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="48">
-        <f>'1.MOTOR DATA'!G15/2*'1.MOTOR DATA'!G14/'1.MOTOR DATA'!D9</f>
+      <c r="D11" s="16">
+        <f>'1.MOTOR DATA'!G16/2*'1.MOTOR DATA'!G15/'1.MOTOR DATA'!D9</f>
         <v>132</v>
       </c>
-      <c r="E11" s="19"/>
       <c r="F11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="30">
+        <v>85</v>
+      </c>
+      <c r="G11" s="22">
         <f>2/3*G12</f>
         <v>16.133333333333333</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="B12" s="19"/>
+    <row r="12" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="16">
         <v>15</v>
       </c>
-      <c r="E12" s="19"/>
       <c r="F12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="24">
+        <v>86</v>
+      </c>
+      <c r="G12" s="16">
         <f>'1.MOTOR DATA'!D16</f>
         <v>24.2</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="B13" s="19"/>
+    <row r="13" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="48">
-        <f>'1.MOTOR DATA'!G14/'1.MOTOR DATA'!D11</f>
+      <c r="D13" s="16">
+        <f>'1.MOTOR DATA'!G15/'1.MOTOR DATA'!D11</f>
         <v>18</v>
       </c>
-      <c r="E13" s="19"/>
       <c r="F13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="24">
+        <v>87</v>
+      </c>
+      <c r="G13" s="16">
         <f>('1.MOTOR DATA'!D17-'1.MOTOR DATA'!D18)/2</f>
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="B14" s="19"/>
+    <row r="14" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="23">
         <f>2*PI()*D12/D13*(('1.MOTOR DATA'!D17-'1.MOTOR DATA'!D18)/2-1)/'1.MOTOR DATA'!D11+2*'1.MOTOR DATA'!D14</f>
         <v>581.15781021773637</v>
       </c>
-      <c r="E14" s="19"/>
       <c r="F14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="24">
+        <v>57</v>
+      </c>
+      <c r="G14" s="16">
         <f>('1.MOTOR DATA'!D17+'1.MOTOR DATA'!D18)/2</f>
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="19"/>
-      <c r="C15" s="49" t="s">
+    <row r="15" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="50">
-        <f>D9*D14*0.001*D11*4/PI()/'1.MOTOR DATA'!G16/'1.MOTOR DATA'!G18/0.000001</f>
+      <c r="D15" s="32">
+        <f>D9*D14*0.001*D11*4/PI()/'1.MOTOR DATA'!G17/'1.MOTOR DATA'!G19/0.000001</f>
         <v>0.1527263210166688</v>
       </c>
-      <c r="E15" s="19"/>
       <c r="F15" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="30">
+        <v>58</v>
+      </c>
+      <c r="G15" s="22">
         <f>'1.MOTOR DATA'!D14+2*'4.PARAMETERS ( FROM MOTOR DATA)'!G11+'4.PARAMETERS ( FROM MOTOR DATA)'!G12</f>
         <v>306.46666666666664</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="B16" s="19"/>
-      <c r="E16" s="19"/>
+    <row r="16" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="30">
+        <v>59</v>
+      </c>
+      <c r="G16" s="22">
         <f>PI()*G14</f>
         <v>424.11500823462205</v>
       </c>
     </row>
-    <row r="17" spans="3:7" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C17" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="58"/>
+    <row r="17" spans="3:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="49"/>
       <c r="F17" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="24">
+        <v>60</v>
+      </c>
+      <c r="G17" s="16">
         <f>G12*G13</f>
         <v>774.4</v>
       </c>
     </row>
-    <row r="18" spans="3:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="C18" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="17">
-        <f>3/2*4/PI()*SQRT(2)</f>
-        <v>2.7009489484713183</v>
+    <row r="18" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="15">
+        <f>('1.MOTOR DATA'!G10-'1.MOTOR DATA'!G11/3/'1.MOTOR DATA'!G10*SQRT(D15^2+G27^2))/('4.PARAMETERS ( FROM MOTOR DATA)'!D26*0.3)</f>
+        <v>7.3414152311658318</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="30">
+        <v>74</v>
+      </c>
+      <c r="G18" s="22">
         <f>PI()*(8/2)^2</f>
         <v>50.26548245743669</v>
       </c>
     </row>
-    <row r="19" spans="3:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+    <row r="19" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="51">
+        <f>'1.MOTOR DATA'!G10/'4.PARAMETERS ( FROM MOTOR DATA)'!D18</f>
+        <v>51.76113706071564</v>
+      </c>
       <c r="F19" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="29">
+        <v>61</v>
+      </c>
+      <c r="G19" s="21">
         <f>D9*G15/G18*1000</f>
         <v>1.048677225197268E-4</v>
       </c>
     </row>
-    <row r="20" spans="3:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
+    <row r="20" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="29">
-        <f>G19+D9*G14*2*'1.MOTOR DATA'!G13/PI()/'1.MOTOR DATA'!D11^2/'4.PARAMETERS ( FROM MOTOR DATA)'!G17*1000</f>
+        <v>62</v>
+      </c>
+      <c r="G20" s="21">
+        <f>G19+D9*G14*2*'1.MOTOR DATA'!G14/PI()/'1.MOTOR DATA'!D11^2/'4.PARAMETERS ( FROM MOTOR DATA)'!G17*1000</f>
         <v>1.2395645071494276E-4</v>
       </c>
     </row>
-    <row r="21" spans="3:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="F21" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="52">
-        <f>4*'1.MOTOR DATA'!D9*('4.PARAMETERS ( FROM MOTOR DATA)'!D11*'4.PARAMETERS ( FROM MOTOR DATA)'!G9)^2*'4.PARAMETERS ( FROM MOTOR DATA)'!G20/'1.MOTOR DATA'!G13</f>
+    <row r="21" spans="3:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="49"/>
+      <c r="F21" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="34">
+        <f>4*'1.MOTOR DATA'!D9*('4.PARAMETERS ( FROM MOTOR DATA)'!D11*'4.PARAMETERS ( FROM MOTOR DATA)'!G9)^2*'4.PARAMETERS ( FROM MOTOR DATA)'!G20/'1.MOTOR DATA'!G14</f>
         <v>0.59094218379853902</v>
       </c>
     </row>
-    <row r="22" spans="3:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23" spans="3:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-    </row>
-    <row r="24" spans="3:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="58"/>
-      <c r="F24" s="59" t="s">
+    <row r="22" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C22" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="59"/>
-    </row>
-    <row r="25" spans="3:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="F25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" s="23"/>
-    </row>
-    <row r="26" spans="3:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="F26" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="30">
+      <c r="D22" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="16">
+        <v>270</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="48"/>
+    </row>
+    <row r="24" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="16">
+        <v>3.1</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="16">
+        <f>D24*D23</f>
+        <v>837</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="22">
         <f>'1.MOTOR DATA'!D24/3/'1.MOTOR DATA'!D23+'1.MOTOR DATA'!D26/'1.MOTOR DATA'!D25</f>
         <v>0.89602977667493799</v>
       </c>
     </row>
-    <row r="27" spans="3:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="F27" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" s="30">
-        <f>0.00003156*'1.MOTOR DATA'!D9*'1.MOTOR DATA'!D10*'4.PARAMETERS ( FROM MOTOR DATA)'!D11^2*('4.PARAMETERS ( FROM MOTOR DATA)'!G26/'1.MOTOR DATA'!G14+'4.PARAMETERS ( FROM MOTOR DATA)'!G26*'1.MOTOR DATA'!D9*'4.PARAMETERS ( FROM MOTOR DATA)'!G9^2/'1.MOTOR DATA'!G13/(2*'1.MOTOR DATA'!G13/'1.MOTOR DATA'!D11))</f>
+    <row r="26" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="32">
+        <f>'1.MOTOR DATA'!G10^2/'4.PARAMETERS ( FROM MOTOR DATA)'!D25</f>
+        <v>172.52090800477896</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="22">
+        <f>0.00003156*'1.MOTOR DATA'!D9*'1.MOTOR DATA'!D10*'4.PARAMETERS ( FROM MOTOR DATA)'!D11^2*('4.PARAMETERS ( FROM MOTOR DATA)'!G25/'1.MOTOR DATA'!G15+'4.PARAMETERS ( FROM MOTOR DATA)'!G25*'1.MOTOR DATA'!D9*'4.PARAMETERS ( FROM MOTOR DATA)'!G9^2/'1.MOTOR DATA'!G14/(2*'1.MOTOR DATA'!G14/'1.MOTOR DATA'!D11))</f>
         <v>2.1794218150175184</v>
       </c>
     </row>
-    <row r="28" spans="3:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="F28" s="53" t="s">
+    <row r="27" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F27" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="54">
-        <f>G27/2</f>
+      <c r="G27" s="36">
+        <f>G26/2</f>
         <v>1.0897109075087592</v>
       </c>
     </row>
-    <row r="29" spans="3:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="F29" s="49" t="s">
+    <row r="28" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F28" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="52">
-        <f>G28</f>
+      <c r="G28" s="34">
+        <f>G27</f>
         <v>1.0897109075087592</v>
       </c>
     </row>
-    <row r="30" spans="3:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-    </row>
-    <row r="31" spans="3:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-    </row>
-    <row r="32" spans="3:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-    </row>
-    <row r="33" spans="3:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-    </row>
-    <row r="34" spans="3:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-    </row>
-    <row r="35" spans="3:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-    </row>
-    <row r="36" spans="3:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+    <row r="31" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C24:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3022,17 +2742,585 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1344C7-3BF6-498D-905D-A1C1D0C02758}">
-  <dimension ref="C5"/>
+  <dimension ref="A5:D69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="52"/>
+    <col min="3" max="3" width="9.5703125" style="52" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="3:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C5" s="10" t="s">
+    <row r="5" spans="2:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="53" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="52">
+        <v>0</v>
+      </c>
+      <c r="C9" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B9)/'1.MOTOR DATA'!$G$12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="52">
+        <v>50</v>
+      </c>
+      <c r="C10" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B10)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.98333333333333328</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="52">
+        <v>100</v>
+      </c>
+      <c r="C11" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B11)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.96666666666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="52">
+        <v>150</v>
+      </c>
+      <c r="C12" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B12)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="52">
+        <v>200</v>
+      </c>
+      <c r="C13" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B13)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="52">
+        <v>250</v>
+      </c>
+      <c r="C14" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B14)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="52">
+        <v>300</v>
+      </c>
+      <c r="C15" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B15)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="52">
+        <v>350</v>
+      </c>
+      <c r="C16" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B16)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.8833333333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="52">
+        <v>400</v>
+      </c>
+      <c r="C17" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B17)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="52">
+        <v>450</v>
+      </c>
+      <c r="C18" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B18)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="52">
+        <v>500</v>
+      </c>
+      <c r="C19" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B19)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="52">
+        <v>550</v>
+      </c>
+      <c r="C20" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B20)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.81666666666666665</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="52">
+        <v>600</v>
+      </c>
+      <c r="C21" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B21)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="52">
+        <v>650</v>
+      </c>
+      <c r="C22" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B22)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.78333333333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="52">
+        <v>700</v>
+      </c>
+      <c r="C23" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B23)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.76666666666666672</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="52">
+        <v>750</v>
+      </c>
+      <c r="C24" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B24)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="52">
+        <v>800</v>
+      </c>
+      <c r="C25" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B25)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="52">
+        <v>850</v>
+      </c>
+      <c r="C26" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B26)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.71666666666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="52">
+        <v>900</v>
+      </c>
+      <c r="C27" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B27)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="52">
+        <v>950</v>
+      </c>
+      <c r="C28" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B28)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.68333333333333335</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="52">
+        <v>1000</v>
+      </c>
+      <c r="C29" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B29)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="52">
+        <v>1050</v>
+      </c>
+      <c r="C30" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B30)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="52">
+        <v>1100</v>
+      </c>
+      <c r="C31" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B31)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.6333333333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="52">
+        <v>1150</v>
+      </c>
+      <c r="C32" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B32)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.6166666666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="52">
+        <v>1200</v>
+      </c>
+      <c r="C33" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B33)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="52">
+        <v>1250</v>
+      </c>
+      <c r="C34" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B34)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="52">
+        <v>1300</v>
+      </c>
+      <c r="C35" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B35)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="52">
+        <v>1350</v>
+      </c>
+      <c r="C36" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B36)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="52">
+        <v>1400</v>
+      </c>
+      <c r="C37" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B37)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="52">
+        <v>1450</v>
+      </c>
+      <c r="C38" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B38)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="52">
+        <v>1500</v>
+      </c>
+      <c r="C39" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B39)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="52">
+        <v>1550</v>
+      </c>
+      <c r="C40" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B40)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.48333333333333334</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="52">
+        <v>1600</v>
+      </c>
+      <c r="C41" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B41)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="52">
+        <v>1650</v>
+      </c>
+      <c r="C42" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B42)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="52">
+        <v>1700</v>
+      </c>
+      <c r="C43" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B43)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.43333333333333335</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="52">
+        <v>1750</v>
+      </c>
+      <c r="C44" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B44)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="52">
+        <v>1800</v>
+      </c>
+      <c r="C45" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B45)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="52">
+        <v>1850</v>
+      </c>
+      <c r="C46" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B46)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.38333333333333336</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="52">
+        <v>1900</v>
+      </c>
+      <c r="C47" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B47)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.36666666666666664</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="52">
+        <v>1950</v>
+      </c>
+      <c r="C48" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B48)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="52">
+        <v>2000</v>
+      </c>
+      <c r="C49" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B49)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="52">
+        <v>2050</v>
+      </c>
+      <c r="C50" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B50)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.31666666666666665</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="52">
+        <v>2100</v>
+      </c>
+      <c r="C51" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B51)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="52">
+        <v>2150</v>
+      </c>
+      <c r="C52" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B52)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.28333333333333333</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="52">
+        <v>2200</v>
+      </c>
+      <c r="C53" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B53)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="52">
+        <v>2250</v>
+      </c>
+      <c r="C54" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B54)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="52">
+        <v>2300</v>
+      </c>
+      <c r="C55" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B55)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.23333333333333334</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="52">
+        <v>2350</v>
+      </c>
+      <c r="C56" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B56)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.21666666666666667</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="52">
+        <v>2400</v>
+      </c>
+      <c r="C57" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B57)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="52">
+        <v>2450</v>
+      </c>
+      <c r="C58" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B58)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.18333333333333332</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="52">
+        <v>2500</v>
+      </c>
+      <c r="C59" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B59)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="52">
+        <v>2550</v>
+      </c>
+      <c r="C60" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B60)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="52">
+        <v>2600</v>
+      </c>
+      <c r="C61" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B61)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="52">
+        <v>2650</v>
+      </c>
+      <c r="C62" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B62)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.11666666666666667</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="52">
+        <v>2700</v>
+      </c>
+      <c r="C63" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B63)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="52">
+        <v>2750</v>
+      </c>
+      <c r="C64" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B64)/'1.MOTOR DATA'!$G$12</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="52">
+        <v>2800</v>
+      </c>
+      <c r="C65" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B65)/'1.MOTOR DATA'!$G$12</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="52">
+        <v>2850</v>
+      </c>
+      <c r="C66" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B66)/'1.MOTOR DATA'!$G$12</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="52">
+        <v>2900</v>
+      </c>
+      <c r="C67" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B67)/'1.MOTOR DATA'!$G$12</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="52">
+        <v>2950</v>
+      </c>
+      <c r="C68" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B68)/'1.MOTOR DATA'!$G$12</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" s="52">
+        <v>3000</v>
+      </c>
+      <c r="C69" s="52">
+        <f>('1.MOTOR DATA'!$G$12-B69)/'1.MOTOR DATA'!$G$12</f>
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3045,12 +3333,12 @@
   <dimension ref="C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="3:3" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C5" s="10" t="s">
         <v>29</v>
       </c>

--- a/EE 564 - Take Home Exam.xlsx
+++ b/EE 564 - Take Home Exam.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elife\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elif\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7420980-1BE5-4D35-ACF1-8C2B9BD24C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD40E1D-FD56-4F16-8EC5-CC9C5386F944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="270" windowWidth="25440" windowHeight="15390" tabRatio="776" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="776" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.MOTOR DATA" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="102">
   <si>
     <t>Delta</t>
   </si>
@@ -338,6 +338,15 @@
   <si>
     <t>Since parameters calculated from motor data deviates from the parameters calculated from the test data, the performance of the analytical calculations are less than the test results. But still, the results are pretty close.</t>
   </si>
+  <si>
+    <t>Current Error</t>
+  </si>
+  <si>
+    <t>Torque Error</t>
+  </si>
+  <si>
+    <t>Power Error</t>
+  </si>
 </sst>
 </file>
 
@@ -349,7 +358,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,8 +434,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,6 +478,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -719,6 +749,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -777,6 +813,15 @@
               <a:rPr lang="en-US"/>
               <a:t>vs. Speed</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="tr-TR"/>
+              <a:t> (Test</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="tr-TR" baseline="0"/>
+              <a:t> Data)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1582,6 +1627,15 @@
               <a:rPr lang="en-US"/>
               <a:t>vs. Speed</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="tr-TR"/>
+              <a:t> (Test</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="tr-TR" baseline="0"/>
+              <a:t> Data)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1690,7 +1744,7 @@
                       </a:pPr>
                       <a:t>[Y DEĞERİ]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="tr-TR"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1720,7 +1774,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="tr-TR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -2534,6 +2588,11 @@
               <a:rPr lang="en-US"/>
               <a:t>vs. Speed</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="tr-TR"/>
+              <a:t> (Test Data)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3340,6 +3399,11 @@
               <a:rPr lang="en-US"/>
               <a:t>vs. Speed</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="tr-TR"/>
+              <a:t> (Motor Data)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3347,8 +3411,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36181644684254499"/>
-          <c:y val="5.0752607653149984E-2"/>
+          <c:x val="0.23518694354251216"/>
+          <c:y val="5.4972939885538676E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4145,6 +4209,11 @@
               <a:rPr lang="en-US"/>
               <a:t>vs. Speed</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="tr-TR"/>
+              <a:t> (Motor Data)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4152,8 +4221,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36181644684254499"/>
-          <c:y val="5.0752607653149984E-2"/>
+          <c:x val="0.23962141689844063"/>
+          <c:y val="5.9139057148121024E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4220,78 +4289,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="45"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-5.636403249517212E-2"/>
-                  <c:y val="-0.1706874571713822"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                    <a:noAutofit/>
-                  </a:bodyPr>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="75000"/>
-                            <a:lumOff val="25000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:fld id="{E82D7530-5DF3-4A6C-8ECC-7F83E3485B94}" type="YVALUE">
-                      <a:rPr lang="en-US" sz="1600"/>
-                      <a:pPr>
-                        <a:defRPr/>
-                      </a:pPr>
-                      <a:t>[Y DEĞERİ]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="tr-TR"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
@@ -4300,11 +4298,30 @@
                       <c:h val="0.11366943657494263"/>
                     </c:manualLayout>
                   </c15:layout>
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-5714-4B9C-9086-1A66E9525885}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="52"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.437962767934525E-2"/>
+                  <c:y val="-4.5693897983875319E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-D978-48A9-A8F8-196B09D34497}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4322,7 +4339,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -5097,6 +5114,11 @@
               <a:rPr lang="en-US"/>
               <a:t>vs. Speed</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="tr-TR"/>
+              <a:t> (Motor Data)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -10729,25 +10751,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911A2C45-8D9F-484E-AD8C-8733D7AE7273}">
   <dimension ref="B2:S39"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
       <c r="S2" s="26"/>
     </row>
-    <row r="3" spans="2:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="2"/>
       <c r="C3" s="10" t="s">
         <v>1</v>
@@ -10761,7 +10783,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -10771,7 +10793,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -10783,7 +10805,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
       <c r="C6" s="5" t="s">
         <v>17</v>
@@ -10795,7 +10817,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="2"/>
       <c r="C7" s="7" t="s">
         <v>28</v>
@@ -10807,7 +10829,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="11"/>
@@ -10815,7 +10837,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
         <v>62</v>
@@ -10827,7 +10849,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
       <c r="C10" s="5" t="s">
         <v>29</v>
@@ -10839,7 +10861,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
       <c r="C11" s="5" t="s">
         <v>3</v>
@@ -10851,7 +10873,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
       <c r="C12" s="7" t="s">
         <v>88</v>
@@ -10864,7 +10886,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="11"/>
@@ -10872,7 +10894,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
         <v>64</v>
@@ -10884,7 +10906,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
       <c r="C15" s="5" t="s">
         <v>63</v>
@@ -10896,7 +10918,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
@@ -10909,7 +10931,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
       <c r="C17" s="5" t="s">
         <v>5</v>
@@ -10921,7 +10943,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
       <c r="C18" s="5" t="s">
         <v>44</v>
@@ -10933,7 +10955,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="2"/>
       <c r="C19" s="7" t="s">
         <v>46</v>
@@ -10946,7 +10968,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -10954,7 +10976,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
         <v>68</v>
@@ -10966,7 +10988,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
       <c r="C22" s="5" t="s">
         <v>16</v>
@@ -10978,7 +11000,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="2"/>
       <c r="C23" s="5" t="s">
         <v>6</v>
@@ -10990,7 +11012,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="2:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B24" s="54" t="s">
         <v>11</v>
       </c>
@@ -11007,7 +11029,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B25" s="55"/>
       <c r="C25" s="52" t="s">
         <v>14</v>
@@ -11019,7 +11041,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="56"/>
       <c r="C26" s="53" t="s">
         <v>15</v>
@@ -11031,7 +11053,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="2"/>
       <c r="C27" s="7" t="s">
         <v>12</v>
@@ -11043,7 +11065,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -11051,7 +11073,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B29" s="54" t="s">
         <v>31</v>
       </c>
@@ -11067,7 +11089,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B30" s="55"/>
       <c r="C30" s="52" t="s">
         <v>30</v>
@@ -11078,7 +11100,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B31" s="55"/>
       <c r="C31" s="52" t="s">
         <v>66</v>
@@ -11087,7 +11109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B32" s="55"/>
       <c r="C32" s="52" t="s">
         <v>65</v>
@@ -11096,7 +11118,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B33" s="55"/>
       <c r="C33" s="52" t="s">
         <v>61</v>
@@ -11105,7 +11127,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="56"/>
       <c r="C34" s="53" t="s">
         <v>67</v>
@@ -11114,8 +11136,8 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B36" s="57" t="s">
         <v>32</v>
       </c>
@@ -11126,7 +11148,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B37" s="58"/>
       <c r="C37" s="52" t="s">
         <v>30</v>
@@ -11135,7 +11157,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B38" s="58"/>
       <c r="C38" s="52" t="s">
         <v>66</v>
@@ -11144,7 +11166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B39" s="59"/>
       <c r="C39" s="53" t="s">
         <v>65</v>
@@ -11172,20 +11194,20 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="G3" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
       <c r="C4" s="10" t="s">
         <v>33</v>
@@ -11195,7 +11217,7 @@
       <c r="F4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -11204,7 +11226,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B6" s="60" t="s">
         <v>35</v>
       </c>
@@ -11216,7 +11238,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B7" s="60"/>
       <c r="C7" s="9" t="s">
         <v>8</v>
@@ -11226,7 +11248,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B8" s="60"/>
       <c r="C8" s="9" t="s">
         <v>9</v>
@@ -11237,7 +11259,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="60"/>
       <c r="C9" s="13" t="s">
         <v>19</v>
@@ -11248,39 +11270,39 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" s="14"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="14"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B12" s="14"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="11"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B15" s="61" t="s">
         <v>10</v>
       </c>
@@ -11295,7 +11317,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B16" s="61"/>
       <c r="C16" s="19" t="s">
         <v>8</v>
@@ -11307,7 +11329,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B17" s="61"/>
       <c r="C17" s="19" t="s">
         <v>9</v>
@@ -11317,7 +11339,7 @@
       </c>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B18" s="61"/>
       <c r="C18" s="19" t="s">
         <v>19</v>
@@ -11327,7 +11349,7 @@
       </c>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="61"/>
       <c r="C19" s="20" t="s">
         <v>34</v>
@@ -11354,13 +11376,13 @@
       <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:22" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:22" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C5" s="10" t="s">
         <v>38</v>
       </c>
@@ -11375,10 +11397,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:22" ht="18" x14ac:dyDescent="0.35">
       <c r="C7" s="35" t="s">
         <v>37</v>
       </c>
@@ -11387,7 +11409,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="8" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:22" ht="18" x14ac:dyDescent="0.35">
       <c r="C8" s="5" t="s">
         <v>26</v>
       </c>
@@ -11398,7 +11420,7 @@
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
     </row>
-    <row r="9" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:22" ht="18" x14ac:dyDescent="0.35">
       <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
@@ -11409,7 +11431,7 @@
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
     </row>
-    <row r="10" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:22" ht="18" x14ac:dyDescent="0.35">
       <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
@@ -11420,7 +11442,7 @@
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
     </row>
-    <row r="11" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:22" ht="18" x14ac:dyDescent="0.35">
       <c r="C11" s="5" t="s">
         <v>97</v>
       </c>
@@ -11431,7 +11453,7 @@
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
     </row>
-    <row r="12" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:22" ht="18" x14ac:dyDescent="0.35">
       <c r="C12" s="32" t="s">
         <v>27</v>
       </c>
@@ -11449,7 +11471,7 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:22" ht="18" x14ac:dyDescent="0.35">
       <c r="C13" s="27" t="s">
         <v>22</v>
       </c>
@@ -11464,7 +11486,7 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:22" ht="18" x14ac:dyDescent="0.35">
       <c r="C14" s="32" t="s">
         <v>23</v>
       </c>
@@ -11482,7 +11504,7 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:22" ht="18" x14ac:dyDescent="0.35">
       <c r="C15" s="32" t="s">
         <v>25</v>
       </c>
@@ -11500,7 +11522,7 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:22" ht="18" x14ac:dyDescent="0.35">
       <c r="C16" s="32" t="s">
         <v>24</v>
       </c>
@@ -11516,7 +11538,7 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C17" s="28" t="s">
         <v>36</v>
       </c>
@@ -11525,7 +11547,7 @@
         <v>0.49592491208751244</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
       <c r="H28" s="26" t="s">
         <v>48</v>
       </c>
@@ -11547,20 +11569,20 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="34.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C5" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="3:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C8" s="63" t="s">
         <v>40</v>
       </c>
@@ -11570,7 +11592,7 @@
       </c>
       <c r="G8" s="63"/>
     </row>
-    <row r="9" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C9" s="3" t="s">
         <v>41</v>
       </c>
@@ -11584,7 +11606,7 @@
         <v>0.95499999999999996</v>
       </c>
     </row>
-    <row r="10" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C10" s="30" t="s">
         <v>43</v>
       </c>
@@ -11600,7 +11622,7 @@
         <v>0.6137131578947369</v>
       </c>
     </row>
-    <row r="11" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C11" s="5" t="s">
         <v>42</v>
       </c>
@@ -11616,7 +11638,7 @@
         <v>16.133333333333333</v>
       </c>
     </row>
-    <row r="12" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C12" s="5" t="s">
         <v>44</v>
       </c>
@@ -11631,7 +11653,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="13" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C13" s="5" t="s">
         <v>45</v>
       </c>
@@ -11647,7 +11669,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C14" s="5" t="s">
         <v>49</v>
       </c>
@@ -11663,7 +11685,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C15" s="28" t="s">
         <v>50</v>
       </c>
@@ -11679,7 +11701,7 @@
         <v>306.46666666666664</v>
       </c>
     </row>
-    <row r="16" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="F16" s="5" t="s">
         <v>55</v>
       </c>
@@ -11688,7 +11710,7 @@
         <v>424.11500823462205</v>
       </c>
     </row>
-    <row r="17" spans="3:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C17" s="64" t="s">
         <v>74</v>
       </c>
@@ -11701,7 +11723,7 @@
         <v>774.4</v>
       </c>
     </row>
-    <row r="18" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C18" s="3" t="s">
         <v>85</v>
       </c>
@@ -11717,7 +11739,7 @@
         <v>50.26548245743669</v>
       </c>
     </row>
-    <row r="19" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C19" s="28" t="s">
         <v>24</v>
       </c>
@@ -11733,7 +11755,7 @@
         <v>1.048677225197268E-4</v>
       </c>
     </row>
-    <row r="20" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="F20" s="5" t="s">
         <v>58</v>
       </c>
@@ -11742,7 +11764,7 @@
         <v>1.2395645071494276E-4</v>
       </c>
     </row>
-    <row r="21" spans="3:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C21" s="64" t="s">
         <v>75</v>
       </c>
@@ -11755,7 +11777,7 @@
         <v>0.59094218379853902</v>
       </c>
     </row>
-    <row r="22" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C22" s="3" t="s">
         <v>77</v>
       </c>
@@ -11763,7 +11785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C23" s="5" t="s">
         <v>76</v>
       </c>
@@ -11775,7 +11797,7 @@
       </c>
       <c r="G23" s="63"/>
     </row>
-    <row r="24" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C24" s="5" t="s">
         <v>78</v>
       </c>
@@ -11787,7 +11809,7 @@
       </c>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C25" s="5" t="s">
         <v>79</v>
       </c>
@@ -11803,7 +11825,7 @@
         <v>0.89602977667493799</v>
       </c>
     </row>
-    <row r="26" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C26" s="28" t="s">
         <v>80</v>
       </c>
@@ -11819,7 +11841,7 @@
         <v>4.7947279930385411</v>
       </c>
     </row>
-    <row r="27" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="F27" s="32" t="s">
         <v>23</v>
       </c>
@@ -11828,7 +11850,7 @@
         <v>2.3973639965192706</v>
       </c>
     </row>
-    <row r="28" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F28" s="28" t="s">
         <v>25</v>
       </c>
@@ -11837,27 +11859,27 @@
         <v>2.3973639965192706</v>
       </c>
     </row>
-    <row r="31" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:4" ht="18" x14ac:dyDescent="0.35">
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:4" ht="18" x14ac:dyDescent="0.35">
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:4" ht="18" x14ac:dyDescent="0.35">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:4" ht="18" x14ac:dyDescent="0.35">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
@@ -11875,28 +11897,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1344C7-3BF6-498D-905D-A1C1D0C02758}">
-  <dimension ref="A4:AA70"/>
+  <dimension ref="A4:AF70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF16" sqref="AF16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="39" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:27" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:32" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B4" s="40" t="s">
         <v>94</v>
       </c>
@@ -11912,14 +11936,14 @@
       <c r="Z4" s="66"/>
       <c r="AA4" s="66"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:32" x14ac:dyDescent="0.3">
       <c r="W5" s="66"/>
       <c r="X5" s="66"/>
       <c r="Y5" s="66"/>
       <c r="Z5" s="66"/>
       <c r="AA5" s="66"/>
     </row>
-    <row r="6" spans="2:27" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:32" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B6" s="65" t="s">
         <v>95</v>
       </c>
@@ -11940,14 +11964,14 @@
       <c r="Z6" s="66"/>
       <c r="AA6" s="66"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.3">
       <c r="W7" s="66"/>
       <c r="X7" s="66"/>
       <c r="Y7" s="66"/>
       <c r="Z7" s="66"/>
       <c r="AA7" s="66"/>
     </row>
-    <row r="9" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:32" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="49" t="s">
         <v>93</v>
       </c>
@@ -11979,7 +12003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B10" s="41">
         <v>0</v>
       </c>
@@ -12019,7 +12043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B11" s="44">
         <v>50</v>
       </c>
@@ -12059,7 +12083,7 @@
         <v>0.18418447708931915</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="44">
         <v>100</v>
       </c>
@@ -12099,7 +12123,7 @@
         <v>0.3744701662686783</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:32" ht="21" x14ac:dyDescent="0.4">
       <c r="B13" s="44">
         <v>150</v>
       </c>
@@ -12138,8 +12162,15 @@
         <f t="shared" si="1"/>
         <v>0.5711598566567142</v>
       </c>
-    </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE13" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF13" s="67">
+        <f>(R10-D10)/D10*100</f>
+        <v>3.779078574346705</v>
+      </c>
+    </row>
+    <row r="14" spans="2:32" ht="21" x14ac:dyDescent="0.4">
       <c r="B14" s="44">
         <v>200</v>
       </c>
@@ -12178,8 +12209,15 @@
         <f t="shared" si="1"/>
         <v>0.77457629896794045</v>
       </c>
-    </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE14" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF14" s="68">
+        <f>(S63-E64)/E64*100</f>
+        <v>3.8719122436880693</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="44">
         <v>250</v>
       </c>
@@ -12218,8 +12256,15 @@
         <f t="shared" si="1"/>
         <v>0.9850638380528921</v>
       </c>
-    </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE15" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF15" s="69">
+        <f>(T63-F64)/F64*100</f>
+        <v>1.9483583132493869</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B16" s="44">
         <v>300</v>
       </c>
@@ -12259,7 +12304,7 @@
         <v>1.2029902034611291</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="44">
         <v>350</v>
       </c>
@@ -12299,7 +12344,7 @@
         <v>1.4287484754450568</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="44">
         <v>400</v>
       </c>
@@ -12339,7 +12384,7 @@
         <v>1.662759245923541</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B19" s="44">
         <v>450</v>
       </c>
@@ -12379,7 +12424,7 @@
         <v>1.9054729962874952</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B20" s="44">
         <v>500</v>
       </c>
@@ -12419,7 +12464,7 @@
         <v>2.1573727165847463</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" s="44">
         <v>550</v>
       </c>
@@ -12459,7 +12504,7 @@
         <v>2.4189767936000219</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="44">
         <v>600</v>
       </c>
@@ -12499,7 +12544,7 @@
         <v>2.6908421986797384</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" s="44">
         <v>650</v>
       </c>
@@ -12539,7 +12584,7 @@
         <v>2.973568009871626</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B24" s="44">
         <v>700</v>
       </c>
@@ -12579,7 +12624,7 @@
         <v>3.2677993070839872</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B25" s="44">
         <v>750</v>
       </c>
@@ -12619,7 +12664,7 @@
         <v>3.5742314835396303</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B26" s="44">
         <v>800</v>
       </c>
@@ -12659,7 +12704,7 @@
         <v>3.8936150218139058</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" s="44">
         <v>850</v>
       </c>
@@ -12699,7 +12744,7 @@
         <v>4.2267607881930296</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B28" s="44">
         <v>900</v>
       </c>
@@ -12739,7 +12784,7 @@
         <v>4.5745459049233528</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B29" s="44">
         <v>950</v>
       </c>
@@ -12779,7 +12824,7 @@
         <v>4.9379202660498276</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B30" s="44">
         <v>1000</v>
       </c>
@@ -12819,7 +12864,7 @@
         <v>5.3179137687911036</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B31" s="44">
         <v>1050</v>
       </c>
@@ -12859,7 +12904,7 @@
         <v>5.7156443384845739</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B32" s="44">
         <v>1100</v>
       </c>
@@ -12899,7 +12944,7 @@
         <v>6.1323268306026693</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B33" s="44">
         <v>1150</v>
       </c>
@@ -12939,7 +12984,7 @@
         <v>6.5692828974880682</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B34" s="44">
         <v>1200</v>
       </c>
@@ -12979,7 +13024,7 @@
         <v>7.027951909210798</v>
       </c>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B35" s="44">
         <v>1250</v>
       </c>
@@ -13019,7 +13064,7 @@
         <v>7.5099030157072741</v>
       </c>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B36" s="44">
         <v>1300</v>
       </c>
@@ -13059,7 +13104,7 @@
         <v>8.0168484287278137</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B37" s="44">
         <v>1350</v>
       </c>
@@ -13099,7 +13144,7 @@
         <v>8.5506579835488488</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B38" s="44">
         <v>1400</v>
       </c>
@@ -13139,7 +13184,7 @@
         <v>9.1133750066611849</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B39" s="44">
         <v>1450</v>
       </c>
@@ -13179,7 +13224,7 @@
         <v>9.7072334589999194</v>
       </c>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B40" s="44">
         <v>1500</v>
       </c>
@@ -13219,7 +13264,7 @@
         <v>10.334676233338108</v>
       </c>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B41" s="44">
         <v>1550</v>
       </c>
@@ -13259,7 +13304,7 @@
         <v>10.9983743424</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B42" s="44">
         <v>1600</v>
       </c>
@@ -13299,7 +13344,7 @@
         <v>11.701246516177049</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B43" s="44">
         <v>1650</v>
       </c>
@@ -13339,7 +13384,7 @@
         <v>12.44647839596341</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B44" s="44">
         <v>1700</v>
       </c>
@@ -13379,7 +13424,7 @@
         <v>13.237540013927219</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B45" s="44">
         <v>1750</v>
       </c>
@@ -13419,7 +13464,7 @@
         <v>14.078199498812985</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B46" s="44">
         <v>1800</v>
       </c>
@@ -13459,7 +13504,7 @@
         <v>14.972529828253299</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B47" s="44">
         <v>1850</v>
       </c>
@@ -13499,7 +13544,7 @@
         <v>15.924903772453346</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B48" s="44">
         <v>1900</v>
       </c>
@@ -13539,7 +13584,7 @@
         <v>16.939969666145711</v>
       </c>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B49" s="44">
         <v>1950</v>
       </c>
@@ -13579,7 +13624,7 @@
         <v>18.022596888442404</v>
       </c>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B50" s="44">
         <v>2000</v>
       </c>
@@ -13619,7 +13664,7 @@
         <v>19.1777742933597</v>
       </c>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B51" s="44">
         <v>2050</v>
       </c>
@@ -13659,7 +13704,7 @@
         <v>20.410436366449304</v>
       </c>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B52" s="44">
         <v>2100</v>
       </c>
@@ -13699,7 +13744,7 @@
         <v>21.725179155832002</v>
       </c>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B53" s="44">
         <v>2150</v>
       </c>
@@ -13739,7 +13784,7 @@
         <v>23.125808909151665</v>
       </c>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B54" s="44">
         <v>2200</v>
       </c>
@@ -13779,7 +13824,7 @@
         <v>24.614637719812123</v>
       </c>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B55" s="44">
         <v>2250</v>
       </c>
@@ -13819,7 +13864,7 @@
         <v>26.191397906732384</v>
       </c>
     </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B56" s="44">
         <v>2300</v>
       </c>
@@ -13859,7 +13904,7 @@
         <v>27.851584354426301</v>
       </c>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B57" s="44">
         <v>2350</v>
       </c>
@@ -13899,7 +13944,7 @@
         <v>29.583944488116146</v>
       </c>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B58" s="44">
         <v>2400</v>
       </c>
@@ -13939,7 +13984,7 @@
         <v>31.366712753249409</v>
       </c>
     </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B59" s="44">
         <v>2450</v>
       </c>
@@ -13979,7 +14024,7 @@
         <v>33.162031820260061</v>
       </c>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B60" s="44">
         <v>2500</v>
       </c>
@@ -14019,7 +14064,7 @@
         <v>34.907842700795726</v>
       </c>
     </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B61" s="44">
         <v>2550</v>
       </c>
@@ -14059,7 +14104,7 @@
         <v>36.506452555999694</v>
       </c>
     </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B62" s="44">
         <v>2600</v>
       </c>
@@ -14099,7 +14144,7 @@
         <v>37.809243533856161</v>
       </c>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B63" s="44">
         <v>2650</v>
       </c>
@@ -14139,7 +14184,7 @@
         <v>38.598104802516858</v>
       </c>
     </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B64" s="44">
         <v>2700</v>
       </c>
@@ -14179,7 +14224,7 @@
         <v>38.567153692965611</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B65" s="44">
         <v>2750</v>
       </c>
@@ -14219,7 +14264,7 @@
         <v>37.314541593018902</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B66" s="44">
         <v>2800</v>
       </c>
@@ -14259,7 +14304,7 @@
         <v>34.364152101237977</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B67" s="44">
         <v>2850</v>
       </c>
@@ -14299,7 +14344,7 @@
         <v>29.246516782218588</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B68" s="44">
         <v>2900</v>
       </c>
@@ -14339,7 +14384,7 @@
         <v>21.661717855043957</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B69" s="44">
         <v>2950</v>
       </c>
@@ -14379,7 +14424,7 @@
         <v>11.699203854488218</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="50" t="s">
         <v>86</v>
       </c>

--- a/EE 564 - Take Home Exam.xlsx
+++ b/EE 564 - Take Home Exam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elif\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD40E1D-FD56-4F16-8EC5-CC9C5386F944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD87880-52D8-4796-AEB7-848053CFE81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="776" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.MOTOR DATA" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="103">
   <si>
     <t>Delta</t>
   </si>
@@ -347,18 +347,20 @@
   <si>
     <t>Power Error</t>
   </si>
+  <si>
+    <t xml:space="preserve">ELİF TOPALOĞLU </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,8 +451,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,6 +527,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,7 +666,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -651,7 +700,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -661,16 +709,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -680,25 +722,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -710,6 +737,41 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -728,6 +790,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -736,6 +801,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -749,12 +817,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1090,7 +1152,7 @@
             <c:numRef>
               <c:f>'5.PERFORMANCE'!$D$10:$D$70</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
                   <c:v>75.465398795809051</c:v>
@@ -1493,7 +1555,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1774,7 +1836,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="tr-TR"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -2050,7 +2112,7 @@
             <c:numRef>
               <c:f>'5.PERFORMANCE'!$E$10:$E$70</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
                   <c:v>26.97013062312142</c:v>
@@ -2454,7 +2516,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2861,7 +2923,7 @@
             <c:numRef>
               <c:f>'5.PERFORMANCE'!$F$10:$F$70</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3265,7 +3327,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3672,7 +3734,7 @@
             <c:numRef>
               <c:f>'5.PERFORMANCE'!$R$10:$R$70</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
                   <c:v>78.317295512746767</c:v>
@@ -4075,7 +4137,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4312,6 +4374,35 @@
                   <c:y val="-4.5693897983875319E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="tr-TR"/>
+                </a:p>
+              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -4576,7 +4667,7 @@
             <c:numRef>
               <c:f>'5.PERFORMANCE'!$S$10:$S$70</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
                   <c:v>34.612401942178089</c:v>
@@ -4980,7 +5071,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5387,7 +5478,7 @@
             <c:numRef>
               <c:f>'5.PERFORMANCE'!$T$10:$T$70</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5791,7 +5882,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9151,15 +9242,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>494852</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>33170</xdr:rowOff>
+      <xdr:colOff>503816</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>140746</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>62213</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>167639</xdr:rowOff>
+      <xdr:colOff>71177</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95921</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9181,7 +9272,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4286923" y="5645076"/>
+          <a:off x="4349675" y="6469828"/>
           <a:ext cx="5923337" cy="4303057"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9195,13 +9286,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>32271</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>35771</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>8197</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9261,13 +9352,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>4930</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>143435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>20809</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>22352</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10749,10 +10840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911A2C45-8D9F-484E-AD8C-8733D7AE7273}">
-  <dimension ref="B2:S39"/>
+  <dimension ref="B2:S41"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10766,166 +10857,155 @@
     <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="S2" s="26"/>
-    </row>
-    <row r="3" spans="2:19" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B3" s="2"/>
-      <c r="C3" s="10" t="s">
+    <row r="2" spans="2:19" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C2" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="69">
+        <v>2443984</v>
+      </c>
+      <c r="E2" s="69"/>
+    </row>
+    <row r="3" spans="2:19" s="60" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="S4" s="25"/>
+    </row>
+    <row r="5" spans="2:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B5" s="2"/>
+      <c r="C5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="10" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="2:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="4">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="2:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="2"/>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="6">
-        <v>50</v>
-      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
-      <c r="C7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="8">
-        <v>2</v>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
       </c>
       <c r="E7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="11"/>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6">
+        <v>50</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="2:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>0</v>
+      <c r="C9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2</v>
       </c>
       <c r="E9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="2:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="2"/>
-      <c r="C10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="6">
-        <v>380</v>
-      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
-      <c r="C11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="6">
-        <v>37</v>
+      <c r="C11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="E11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
-      <c r="C12" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="8">
-        <f>120*D6/D7</f>
-        <v>3000</v>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="6">
+        <v>380</v>
       </c>
       <c r="E12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="11"/>
+      <c r="C13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="6">
+        <v>37</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="2:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="2"/>
-      <c r="C14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="4">
-        <v>40</v>
+      <c r="C14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="8">
+        <f>120*D8/D9</f>
+        <v>3000</v>
       </c>
       <c r="E14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="2:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="2"/>
-      <c r="C15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="6">
-        <v>36</v>
-      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
-      <c r="C16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="6">
-        <f>11+11</f>
-        <v>22</v>
+      <c r="C16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="4">
+        <v>40</v>
       </c>
       <c r="E16" s="2"/>
       <c r="H16" s="2"/>
@@ -10934,10 +11014,10 @@
     <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
       <c r="C17" s="5" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="D17" s="6">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2"/>
       <c r="H17" s="2"/>
@@ -10946,240 +11026,266 @@
     <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
       <c r="C18" s="5" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="D18" s="6">
-        <v>15</v>
+        <f>11+11</f>
+        <v>22</v>
       </c>
       <c r="E18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
-      <c r="C19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="8">
-        <f>5*1.1</f>
-        <v>5.5</v>
+      <c r="C19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2</v>
       </c>
       <c r="E19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="C20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="6">
+        <v>15</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="2"/>
-      <c r="C21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>2</v>
+      <c r="C21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="8">
+        <f>5*1.1</f>
+        <v>5.5</v>
       </c>
       <c r="E21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="2"/>
-      <c r="C22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="6">
-        <v>250</v>
-      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B23" s="2"/>
-      <c r="C23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="6">
-        <v>0.75</v>
+      <c r="C23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="E23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="2:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B24" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="51" t="s">
-        <v>13</v>
+    <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B24" s="2"/>
+      <c r="C24" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="D24" s="6">
-        <v>24.2</v>
+        <v>250</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="10" t="s">
-        <v>89</v>
-      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B25" s="55"/>
-      <c r="C25" s="52" t="s">
-        <v>14</v>
+    <row r="25" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="2"/>
+      <c r="C25" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="D25" s="6">
-        <v>167</v>
+        <v>0.75</v>
       </c>
       <c r="E25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="56"/>
-      <c r="C26" s="53" t="s">
-        <v>15</v>
+    <row r="26" spans="2:9" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B26" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>13</v>
       </c>
       <c r="D26" s="6">
-        <v>103</v>
+        <v>24.2</v>
       </c>
       <c r="E26" s="2"/>
+      <c r="F26" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="2"/>
-      <c r="C27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="8">
-        <v>0.13</v>
+    <row r="27" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B27" s="64"/>
+      <c r="C27" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="6">
+        <v>167</v>
       </c>
       <c r="E27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="6">
+        <v>103</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B29" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="4">
-        <v>300</v>
+    <row r="29" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="2"/>
+      <c r="C29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0.13</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="11"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B30" s="55"/>
-      <c r="C30" s="52" t="s">
+    <row r="30" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B31" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="4">
+        <v>300</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B32" s="64"/>
+      <c r="C32" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D32" s="6">
         <v>170</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B31" s="55"/>
-      <c r="C31" s="52" t="s">
+      <c r="F32" s="2"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B33" s="64"/>
+      <c r="C33" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D33" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B32" s="55"/>
-      <c r="C32" s="52" t="s">
+    <row r="34" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B34" s="64"/>
+      <c r="C34" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D34" s="6">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B33" s="55"/>
-      <c r="C33" s="52" t="s">
+    <row r="35" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B35" s="64"/>
+      <c r="C35" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D35" s="6">
         <v>3.1</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="56"/>
-      <c r="C34" s="53" t="s">
+    <row r="36" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="65"/>
+      <c r="C36" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D36" s="8">
         <v>0.87</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B36" s="57" t="s">
+    <row r="37" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B38" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C38" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D38" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B37" s="58"/>
-      <c r="C37" s="52" t="s">
+    <row r="39" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B39" s="67"/>
+      <c r="C39" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D39" s="6">
         <v>170</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B38" s="58"/>
-      <c r="C38" s="52" t="s">
+    <row r="40" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B40" s="67"/>
+      <c r="C40" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D40" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="59"/>
-      <c r="C39" s="53" t="s">
+    <row r="41" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="68"/>
+      <c r="C41" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D41" s="8">
         <v>24</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="B36:B39"/>
+  <mergeCells count="4">
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11191,7 +11297,7 @@
   <dimension ref="B3:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11227,7 +11333,7 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="2:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="70" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -11239,7 +11345,7 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B7" s="60"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
@@ -11249,7 +11355,7 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="2:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B8" s="60"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="9" t="s">
         <v>9</v>
       </c>
@@ -11260,7 +11366,7 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="60"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="13" t="s">
         <v>19</v>
       </c>
@@ -11303,7 +11409,7 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="2:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="71" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="18" t="s">
@@ -11318,7 +11424,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="2:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B16" s="61"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="19" t="s">
         <v>8</v>
       </c>
@@ -11330,7 +11436,7 @@
       <c r="H16" s="11"/>
     </row>
     <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B17" s="61"/>
+      <c r="B17" s="71"/>
       <c r="C17" s="19" t="s">
         <v>9</v>
       </c>
@@ -11340,7 +11446,7 @@
       <c r="E17" s="11"/>
     </row>
     <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B18" s="61"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="19" t="s">
         <v>19</v>
       </c>
@@ -11350,7 +11456,7 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="61"/>
+      <c r="B19" s="71"/>
       <c r="C19" s="20" t="s">
         <v>34</v>
       </c>
@@ -11373,20 +11479,20 @@
   <dimension ref="C5:V28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:22" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="73"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -11401,10 +11507,10 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="3:22" ht="18" x14ac:dyDescent="0.35">
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="58">
         <f>'2.TEST DATA'!D19*3/2</f>
         <v>0.153</v>
       </c>
@@ -11413,120 +11519,120 @@
       <c r="C8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="23">
-        <f>'2.TEST DATA'!D18/'1.MOTOR DATA'!D5/('2.TEST DATA'!D16/SQRT(3))^2</f>
+      <c r="D8" s="54">
+        <f>'2.TEST DATA'!D18/'1.MOTOR DATA'!D7/('2.TEST DATA'!D16/SQRT(3))^2</f>
         <v>36.897959183673471</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
     </row>
     <row r="9" spans="3:22" ht="18" x14ac:dyDescent="0.35">
       <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="23">
-        <f>4*'2.TEST DATA'!D9/'1.MOTOR DATA'!D5/('2.TEST DATA'!D7/SQRT(3))^2</f>
+      <c r="D9" s="54">
+        <f>4*'2.TEST DATA'!D9/'1.MOTOR DATA'!D7/('2.TEST DATA'!D7/SQRT(3))^2</f>
         <v>4.8244897959183675</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
     </row>
     <row r="10" spans="3:22" ht="18" x14ac:dyDescent="0.35">
       <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="23">
-        <f>'2.TEST DATA'!D8/'1.MOTOR DATA'!D5/('2.TEST DATA'!D7/SQRT(3))^2</f>
+      <c r="D10" s="54">
+        <f>'2.TEST DATA'!D8/'1.MOTOR DATA'!D7/('2.TEST DATA'!D7/SQRT(3))^2</f>
         <v>0.58408163265306123</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
     </row>
     <row r="11" spans="3:22" ht="18" x14ac:dyDescent="0.35">
       <c r="C11" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="23">
-        <f>'2.TEST DATA'!D17-'2.TEST DATA'!D17*0.01-'1.MOTOR DATA'!D5*('2.TEST DATA'!D16/SQRT(3))^2*'3.PARAMETERS (FROM TEST DATA)'!D7</f>
+      <c r="D11" s="54">
+        <f>'2.TEST DATA'!D17-'2.TEST DATA'!D17*0.01-'1.MOTOR DATA'!D7*('2.TEST DATA'!D16/SQRT(3))^2*'3.PARAMETERS (FROM TEST DATA)'!D7</f>
         <v>2566.7437500000001</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
     </row>
     <row r="12" spans="3:22" ht="18" x14ac:dyDescent="0.35">
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="34">
-        <f>'1.MOTOR DATA'!D5*'2.TEST DATA'!D15^2/'3.PARAMETERS (FROM TEST DATA)'!D11</f>
+      <c r="D12" s="57">
+        <f>'1.MOTOR DATA'!D7*'2.TEST DATA'!D15^2/'3.PARAMETERS (FROM TEST DATA)'!D11</f>
         <v>168.77415207497828</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="P12" s="25"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="P12" s="24"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
-      <c r="T12" s="62"/>
+      <c r="T12" s="72"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
     </row>
     <row r="13" spans="3:22" ht="18" x14ac:dyDescent="0.35">
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="P13" s="25"/>
+      <c r="D13" s="54"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="P13" s="24"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-      <c r="T13" s="62"/>
+      <c r="T13" s="72"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
     </row>
     <row r="14" spans="3:22" ht="18" x14ac:dyDescent="0.35">
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="57">
         <f>(2*D8-SQRT(4*D8^2-4*D9*D8))/2</f>
         <v>2.4967155383023254</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="P14" s="25"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="P14" s="24"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
-      <c r="T14" s="62"/>
+      <c r="T14" s="72"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
     </row>
     <row r="15" spans="3:22" ht="18" x14ac:dyDescent="0.35">
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="57">
         <f>D14</f>
         <v>2.4967155383023254</v>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="P15" s="25"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="P15" s="24"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-      <c r="T15" s="62"/>
+      <c r="T15" s="72"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
     <row r="16" spans="3:22" ht="18" x14ac:dyDescent="0.35">
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="57">
         <f>D8-D14</f>
         <v>34.401243645371146</v>
       </c>
@@ -11534,27 +11640,28 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
-      <c r="T16" s="62"/>
+      <c r="T16" s="72"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
     </row>
     <row r="17" spans="3:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="55">
         <f>(D10-D7)*((D15+D16)/D16)^2</f>
         <v>0.49592491208751244</v>
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="H28" s="26" t="s">
+      <c r="H28" s="25" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="T12:T16"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11565,8 +11672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FE65C8-62DE-4C8C-ACD7-09FA947C1097}">
   <dimension ref="C5:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11583,14 +11690,14 @@
       </c>
     </row>
     <row r="8" spans="3:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="F8" s="63" t="s">
+      <c r="D8" s="74"/>
+      <c r="F8" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="63"/>
+      <c r="G8" s="74"/>
     </row>
     <row r="9" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C9" s="3" t="s">
@@ -11607,18 +11714,18 @@
       </c>
     </row>
     <row r="10" spans="3:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="28" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="16">
-        <f>'1.MOTOR DATA'!D15/'1.MOTOR DATA'!D5/'1.MOTOR DATA'!D7</f>
+        <f>'1.MOTOR DATA'!D17/'1.MOTOR DATA'!D7/'1.MOTOR DATA'!D9</f>
         <v>6</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="23">
-        <f>2*G9*D11*'1.MOTOR DATA'!D5/'1.MOTOR DATA'!D14*('1.MOTOR DATA'!D11/3/'1.MOTOR DATA'!D10)</f>
+      <c r="G10" s="54">
+        <f>2*G9*D11*'1.MOTOR DATA'!D7/'1.MOTOR DATA'!D16*('1.MOTOR DATA'!D13/3/'1.MOTOR DATA'!D12)</f>
         <v>0.6137131578947369</v>
       </c>
     </row>
@@ -11627,13 +11734,13 @@
         <v>42</v>
       </c>
       <c r="D11" s="16">
-        <f>'1.MOTOR DATA'!D16/2*'1.MOTOR DATA'!D15/'1.MOTOR DATA'!D5</f>
+        <f>'1.MOTOR DATA'!D18/2*'1.MOTOR DATA'!D17/'1.MOTOR DATA'!D7</f>
         <v>132</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="54">
         <f>2/3*G12</f>
         <v>16.133333333333333</v>
       </c>
@@ -11649,7 +11756,7 @@
         <v>82</v>
       </c>
       <c r="G12" s="16">
-        <f>'1.MOTOR DATA'!D24</f>
+        <f>'1.MOTOR DATA'!D26</f>
         <v>24.2</v>
       </c>
     </row>
@@ -11658,14 +11765,14 @@
         <v>45</v>
       </c>
       <c r="D13" s="16">
-        <f>'1.MOTOR DATA'!D15/'1.MOTOR DATA'!D7</f>
+        <f>'1.MOTOR DATA'!D17/'1.MOTOR DATA'!D9</f>
         <v>18</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>83</v>
       </c>
       <c r="G13" s="16">
-        <f>('1.MOTOR DATA'!D25-'1.MOTOR DATA'!D26)/2</f>
+        <f>('1.MOTOR DATA'!D27-'1.MOTOR DATA'!D28)/2</f>
         <v>32</v>
       </c>
     </row>
@@ -11673,31 +11780,31 @@
       <c r="C14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="23">
-        <f>2*PI()*D12/D13*(('1.MOTOR DATA'!D25-'1.MOTOR DATA'!D26)/2-1)/'1.MOTOR DATA'!D7+2*'1.MOTOR DATA'!D22</f>
+      <c r="D14" s="54">
+        <f>2*PI()*D12/D13*(('1.MOTOR DATA'!D27-'1.MOTOR DATA'!D28)/2-1)/'1.MOTOR DATA'!D9+2*'1.MOTOR DATA'!D24</f>
         <v>581.15781021773637</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>53</v>
       </c>
       <c r="G14" s="16">
-        <f>('1.MOTOR DATA'!D25+'1.MOTOR DATA'!D26)/2</f>
+        <f>('1.MOTOR DATA'!D27+'1.MOTOR DATA'!D28)/2</f>
         <v>135</v>
       </c>
     </row>
     <row r="15" spans="3:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="29">
-        <f>D9*D14*0.001*D11*4/PI()/'1.MOTOR DATA'!D17/'1.MOTOR DATA'!D19/0.000001</f>
+      <c r="D15" s="55">
+        <f>D9*D14*0.001*D11*4/PI()/'1.MOTOR DATA'!D19/'1.MOTOR DATA'!D21/0.000001</f>
         <v>0.1527263210166688</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="22">
-        <f>'1.MOTOR DATA'!D22+2*'4.PARAMETERS ( FROM MOTOR DATA)'!G11+'4.PARAMETERS ( FROM MOTOR DATA)'!G12</f>
+      <c r="G15" s="54">
+        <f>'1.MOTOR DATA'!D24+2*'4.PARAMETERS ( FROM MOTOR DATA)'!G11+'4.PARAMETERS ( FROM MOTOR DATA)'!G12</f>
         <v>306.46666666666664</v>
       </c>
     </row>
@@ -11705,16 +11812,16 @@
       <c r="F16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="54">
         <f>PI()*G14</f>
         <v>424.11500823462205</v>
       </c>
     </row>
     <row r="17" spans="3:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="64"/>
+      <c r="D17" s="75"/>
       <c r="F17" s="5" t="s">
         <v>56</v>
       </c>
@@ -11727,24 +11834,24 @@
       <c r="C18" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="15">
-        <f>('1.MOTOR DATA'!D10-'1.MOTOR DATA'!D11/3/'1.MOTOR DATA'!D10*SQRT(D15^2+G27^2))/('4.PARAMETERS ( FROM MOTOR DATA)'!D26*0.3)</f>
+      <c r="D18" s="56">
+        <f>('1.MOTOR DATA'!D12-'1.MOTOR DATA'!D13/3/'1.MOTOR DATA'!D12*SQRT(D15^2+G27^2))/('4.PARAMETERS ( FROM MOTOR DATA)'!D26*0.3)</f>
         <v>7.3405988386985683</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="54">
         <f>PI()*(8/2)^2</f>
         <v>50.26548245743669</v>
       </c>
     </row>
     <row r="19" spans="3:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="38">
-        <f>'1.MOTOR DATA'!D10/'4.PARAMETERS ( FROM MOTOR DATA)'!D18</f>
+      <c r="D19" s="55">
+        <f>'1.MOTOR DATA'!D12/'4.PARAMETERS ( FROM MOTOR DATA)'!D18</f>
         <v>51.766893730344634</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -11760,20 +11867,20 @@
         <v>58</v>
       </c>
       <c r="G20" s="21">
-        <f>G19+D9*G14*2*'1.MOTOR DATA'!D14/PI()/'1.MOTOR DATA'!D7^2/'4.PARAMETERS ( FROM MOTOR DATA)'!G17*1000</f>
+        <f>G19+D9*G14*2*'1.MOTOR DATA'!D16/PI()/'1.MOTOR DATA'!D9^2/'4.PARAMETERS ( FROM MOTOR DATA)'!G17*1000</f>
         <v>1.2395645071494276E-4</v>
       </c>
     </row>
     <row r="21" spans="3:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="64"/>
-      <c r="F21" s="28" t="s">
+      <c r="D21" s="75"/>
+      <c r="F21" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="31">
-        <f>4*'1.MOTOR DATA'!D5*('4.PARAMETERS ( FROM MOTOR DATA)'!D11*'4.PARAMETERS ( FROM MOTOR DATA)'!G9)^2*'4.PARAMETERS ( FROM MOTOR DATA)'!G20/'1.MOTOR DATA'!D14</f>
+      <c r="G21" s="55">
+        <f>4*'1.MOTOR DATA'!D7*('4.PARAMETERS ( FROM MOTOR DATA)'!D11*'4.PARAMETERS ( FROM MOTOR DATA)'!G9)^2*'4.PARAMETERS ( FROM MOTOR DATA)'!G20/'1.MOTOR DATA'!D16</f>
         <v>0.59094218379853902</v>
       </c>
     </row>
@@ -11781,7 +11888,7 @@
       <c r="C22" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="31">
         <v>1</v>
       </c>
     </row>
@@ -11792,10 +11899,10 @@
       <c r="D23" s="16">
         <v>270</v>
       </c>
-      <c r="F23" s="63" t="s">
+      <c r="F23" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="63"/>
+      <c r="G23" s="74"/>
     </row>
     <row r="24" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C24" s="5" t="s">
@@ -11821,40 +11928,40 @@
         <v>71</v>
       </c>
       <c r="G25" s="22">
-        <f>'1.MOTOR DATA'!D32/3/'1.MOTOR DATA'!D31+'1.MOTOR DATA'!D34/'1.MOTOR DATA'!D33</f>
+        <f>'1.MOTOR DATA'!D34/3/'1.MOTOR DATA'!D33+'1.MOTOR DATA'!D36/'1.MOTOR DATA'!D35</f>
         <v>0.89602977667493799</v>
       </c>
     </row>
     <row r="26" spans="3:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="29">
-        <f>'1.MOTOR DATA'!D10^2/'4.PARAMETERS ( FROM MOTOR DATA)'!D25</f>
+      <c r="D26" s="55">
+        <f>'1.MOTOR DATA'!D12^2/'4.PARAMETERS ( FROM MOTOR DATA)'!D25</f>
         <v>172.52090800477896</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G26" s="22">
-        <f>0.00003156*'1.MOTOR DATA'!D5*'1.MOTOR DATA'!D6*'4.PARAMETERS ( FROM MOTOR DATA)'!D11^2*('4.PARAMETERS ( FROM MOTOR DATA)'!G25/'1.MOTOR DATA'!D15+'4.PARAMETERS ( FROM MOTOR DATA)'!G25*'1.MOTOR DATA'!D5*'4.PARAMETERS ( FROM MOTOR DATA)'!G9^2/'1.MOTOR DATA'!D14/(2*'1.MOTOR DATA'!D14/'1.MOTOR DATA'!D7))*2.2</f>
+      <c r="G26" s="54">
+        <f>0.00003156*'1.MOTOR DATA'!D7*'1.MOTOR DATA'!D8*'4.PARAMETERS ( FROM MOTOR DATA)'!D11^2*('4.PARAMETERS ( FROM MOTOR DATA)'!G25/'1.MOTOR DATA'!D17+'4.PARAMETERS ( FROM MOTOR DATA)'!G25*'1.MOTOR DATA'!D7*'4.PARAMETERS ( FROM MOTOR DATA)'!G9^2/'1.MOTOR DATA'!D16/(2*'1.MOTOR DATA'!D16/'1.MOTOR DATA'!D9))*2.2</f>
         <v>4.7947279930385411</v>
       </c>
     </row>
     <row r="27" spans="3:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="57">
         <f>G26/2</f>
         <v>2.3973639965192706</v>
       </c>
     </row>
     <row r="28" spans="3:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="31">
+      <c r="G28" s="55">
         <f>G27</f>
         <v>2.3973639965192706</v>
       </c>
@@ -11899,2573 +12006,2573 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1344C7-3BF6-498D-905D-A1C1D0C02758}">
   <dimension ref="A4:AF70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF16" sqref="AF16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4:AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" style="32" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:32" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="W4" s="66" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="W4" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="77"/>
     </row>
     <row r="6" spans="2:32" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="P6" s="65" t="s">
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="P6" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="77"/>
     </row>
     <row r="7" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="W7" s="66"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="66"/>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="66"/>
+      <c r="W7" s="77"/>
+      <c r="X7" s="77"/>
+      <c r="Y7" s="77"/>
+      <c r="Z7" s="77"/>
+      <c r="AA7" s="77"/>
     </row>
     <row r="9" spans="2:32" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="P9" s="49" t="s">
+      <c r="P9" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="Q9" s="49" t="s">
+      <c r="Q9" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="R9" s="49" t="s">
+      <c r="R9" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="S9" s="49" t="s">
+      <c r="S9" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="T9" s="49" t="s">
+      <c r="T9" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B10" s="41">
+      <c r="B10" s="34">
         <v>0</v>
       </c>
-      <c r="C10" s="42">
-        <f>('1.MOTOR DATA'!$D$12-B10)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C10" s="45">
+        <f>('1.MOTOR DATA'!$D$14-B10)/'1.MOTOR DATA'!$D$14</f>
         <v>1</v>
       </c>
-      <c r="D10" s="42">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C10)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D10" s="45">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C10)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>75.465398795809051</v>
       </c>
-      <c r="E10" s="42">
-        <f>3*D10^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C10/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E10" s="45">
+        <f>3*D10^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C10/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>26.97013062312142</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="46">
         <f>0.00001*B10*PI()/30/1000</f>
         <v>0</v>
       </c>
-      <c r="P10" s="41">
+      <c r="P10" s="34">
         <v>0</v>
       </c>
-      <c r="Q10" s="42">
-        <f>('1.MOTOR DATA'!$D$12-P10)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q10" s="45">
+        <f>('1.MOTOR DATA'!$D$14-P10)/'1.MOTOR DATA'!$D$14</f>
         <v>1</v>
       </c>
-      <c r="R10" s="42">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q10)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R10" s="45">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q10)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>78.317295512746767</v>
       </c>
-      <c r="S10" s="42">
-        <f>3*R10^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q10/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S10" s="45">
+        <f>3*R10^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q10/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>34.612401942178089</v>
       </c>
-      <c r="T10" s="43">
+      <c r="T10" s="46">
         <f>0.00001*P10*PI()/30/1000</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B11" s="44">
+      <c r="B11" s="35">
         <v>50</v>
       </c>
-      <c r="C11" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B11)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C11" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B11)/'1.MOTOR DATA'!$D$14</f>
         <v>0.98333333333333328</v>
       </c>
-      <c r="D11" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C11)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D11" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C11)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>75.449064613637233</v>
       </c>
-      <c r="E11" s="39">
-        <f>3*D11^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C11/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E11" s="47">
+        <f>3*D11^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C11/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>27.415379729444226</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="48">
         <f>E11*B11*PI()/30/1000</f>
         <v>0.14354659258899422</v>
       </c>
-      <c r="P11" s="44">
+      <c r="P11" s="35">
         <v>50</v>
       </c>
-      <c r="Q11" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P11)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q11" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P11)/'1.MOTOR DATA'!$D$14</f>
         <v>0.98333333333333328</v>
       </c>
-      <c r="R11" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q11)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R11" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q11)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>78.292361878037838</v>
       </c>
-      <c r="S11" s="39">
-        <f>3*R11^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q11/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S11" s="47">
+        <f>3*R11^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q11/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>35.17664396347331</v>
       </c>
-      <c r="T11" s="45">
+      <c r="T11" s="48">
         <f>S11*P11*PI()/30/1000</f>
         <v>0.18418447708931915</v>
       </c>
     </row>
     <row r="12" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="44">
+      <c r="B12" s="35">
         <v>100</v>
       </c>
-      <c r="C12" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B12)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C12" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B12)/'1.MOTOR DATA'!$D$14</f>
         <v>0.96666666666666667</v>
       </c>
-      <c r="D12" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C12)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D12" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C12)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>75.431957348460571</v>
       </c>
-      <c r="E12" s="39">
-        <f>3*D12^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C12/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E12" s="47">
+        <f>3*D12^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C12/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>27.875413488387778</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="48">
         <f t="shared" ref="F12:F70" si="0">E12*B12*PI()/30/1000</f>
         <v>0.29191064743632283</v>
       </c>
-      <c r="P12" s="44">
+      <c r="P12" s="35">
         <v>100</v>
       </c>
-      <c r="Q12" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P12)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q12" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P12)/'1.MOTOR DATA'!$D$14</f>
         <v>0.96666666666666667</v>
       </c>
-      <c r="R12" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q12)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R12" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q12)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>78.266243002922593</v>
       </c>
-      <c r="S12" s="39">
-        <f>3*R12^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q12/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S12" s="47">
+        <f>3*R12^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q12/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>35.759266801262449</v>
       </c>
-      <c r="T12" s="45">
+      <c r="T12" s="48">
         <f t="shared" ref="T12:T70" si="1">S12*P12*PI()/30/1000</f>
         <v>0.3744701662686783</v>
       </c>
     </row>
     <row r="13" spans="2:32" ht="21" x14ac:dyDescent="0.4">
-      <c r="B13" s="44">
+      <c r="B13" s="35">
         <v>150</v>
       </c>
-      <c r="C13" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B13)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C13" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B13)/'1.MOTOR DATA'!$D$14</f>
         <v>0.95</v>
       </c>
-      <c r="D13" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C13)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D13" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C13)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>75.414025543691722</v>
       </c>
-      <c r="E13" s="39">
-        <f>3*D13^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C13/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E13" s="47">
+        <f>3*D13^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C13/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>28.350971746181642</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="48">
         <f t="shared" si="0"/>
         <v>0.4453360227996801</v>
       </c>
-      <c r="P13" s="44">
+      <c r="P13" s="35">
         <v>150</v>
       </c>
-      <c r="Q13" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P13)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q13" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P13)/'1.MOTOR DATA'!$D$14</f>
         <v>0.95</v>
       </c>
-      <c r="R13" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q13)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R13" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q13)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>78.238860159165085</v>
       </c>
-      <c r="S13" s="39">
-        <f>3*R13^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q13/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S13" s="47">
+        <f>3*R13^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q13/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>36.361165793029777</v>
       </c>
-      <c r="T13" s="45">
+      <c r="T13" s="48">
         <f t="shared" si="1"/>
         <v>0.5711598566567142</v>
       </c>
-      <c r="AE13" s="70" t="s">
+      <c r="AE13" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="AF13" s="67">
+      <c r="AF13" s="51">
         <f>(R10-D10)/D10*100</f>
         <v>3.779078574346705</v>
       </c>
     </row>
     <row r="14" spans="2:32" ht="21" x14ac:dyDescent="0.4">
-      <c r="B14" s="44">
+      <c r="B14" s="35">
         <v>200</v>
       </c>
-      <c r="C14" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B14)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C14" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B14)/'1.MOTOR DATA'!$D$14</f>
         <v>0.93333333333333335</v>
       </c>
-      <c r="D14" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C14)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D14" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C14)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>75.395213325103171</v>
       </c>
-      <c r="E14" s="39">
-        <f>3*D14^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C14/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E14" s="47">
+        <f>3*D14^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C14/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>28.84284387254878</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="48">
         <f t="shared" si="0"/>
         <v>0.60408310945757737</v>
       </c>
-      <c r="P14" s="44">
+      <c r="P14" s="35">
         <v>200</v>
       </c>
-      <c r="Q14" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P14)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q14" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P14)/'1.MOTOR DATA'!$D$14</f>
         <v>0.93333333333333335</v>
       </c>
-      <c r="R14" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q14)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R14" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q14)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>78.210127899925766</v>
       </c>
-      <c r="S14" s="39">
-        <f>3*R14^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q14/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S14" s="47">
+        <f>3*R14^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q14/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>36.983294034772044</v>
       </c>
-      <c r="T14" s="45">
+      <c r="T14" s="48">
         <f t="shared" si="1"/>
         <v>0.77457629896794045</v>
       </c>
-      <c r="AE14" s="71" t="s">
+      <c r="AE14" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="AF14" s="68">
+      <c r="AF14" s="52">
         <f>(S63-E64)/E64*100</f>
         <v>3.8719122436880693</v>
       </c>
     </row>
     <row r="15" spans="2:32" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="44">
+      <c r="B15" s="35">
         <v>250</v>
       </c>
-      <c r="C15" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B15)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C15" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B15)/'1.MOTOR DATA'!$D$14</f>
         <v>0.91666666666666663</v>
       </c>
-      <c r="D15" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C15)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D15" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C15)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>75.37545993488915</v>
       </c>
-      <c r="E15" s="39">
-        <f>3*D15^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C15/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E15" s="47">
+        <f>3*D15^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C15/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>29.351872908987286</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="48">
         <f t="shared" si="0"/>
         <v>0.76843023583313108</v>
       </c>
-      <c r="P15" s="44">
+      <c r="P15" s="35">
         <v>250</v>
       </c>
-      <c r="Q15" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P15)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q15" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P15)/'1.MOTOR DATA'!$D$14</f>
         <v>0.91666666666666663</v>
       </c>
-      <c r="R15" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q15)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R15" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q15)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>78.179953357519366</v>
       </c>
-      <c r="S15" s="39">
-        <f>3*R15^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q15/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S15" s="47">
+        <f>3*R15^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q15/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>37.626666980926096</v>
       </c>
-      <c r="T15" s="45">
+      <c r="T15" s="48">
         <f t="shared" si="1"/>
         <v>0.9850638380528921</v>
       </c>
-      <c r="AE15" s="72" t="s">
+      <c r="AE15" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="AF15" s="69">
+      <c r="AF15" s="53">
         <f>(T63-F64)/F64*100</f>
         <v>1.9483583132493869</v>
       </c>
     </row>
     <row r="16" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B16" s="44">
+      <c r="B16" s="35">
         <v>300</v>
       </c>
-      <c r="C16" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B16)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C16" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B16)/'1.MOTOR DATA'!$D$14</f>
         <v>0.9</v>
       </c>
-      <c r="D16" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C16)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D16" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C16)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>75.354699207234475</v>
       </c>
-      <c r="E16" s="39">
-        <f>3*D16^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C16/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E16" s="47">
+        <f>3*D16^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C16/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>29.878960133167269</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="48">
         <f t="shared" si="0"/>
         <v>0.93867521651260599</v>
       </c>
-      <c r="P16" s="44">
+      <c r="P16" s="35">
         <v>300</v>
       </c>
-      <c r="Q16" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P16)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q16" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P16)/'1.MOTOR DATA'!$D$14</f>
         <v>0.9</v>
       </c>
-      <c r="R16" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q16)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R16" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q16)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>78.148235454048518</v>
       </c>
-      <c r="S16" s="39">
-        <f>3*R16^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q16/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S16" s="47">
+        <f>3*R16^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q16/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>38.292367474392719</v>
       </c>
-      <c r="T16" s="45">
+      <c r="T16" s="48">
         <f t="shared" si="1"/>
         <v>1.2029902034611291</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B17" s="44">
+      <c r="B17" s="35">
         <v>350</v>
       </c>
-      <c r="C17" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B17)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C17" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B17)/'1.MOTOR DATA'!$D$14</f>
         <v>0.8833333333333333</v>
       </c>
-      <c r="D17" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C17)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D17" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C17)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>75.33285897684388</v>
       </c>
-      <c r="E17" s="39">
-        <f>3*D17^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C17/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E17" s="47">
+        <f>3*D17^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C17/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>30.425070087807068</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="48">
         <f t="shared" si="0"/>
         <v>1.1151370611827744</v>
       </c>
-      <c r="P17" s="44">
+      <c r="P17" s="35">
         <v>350</v>
       </c>
-      <c r="Q17" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P17)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q17" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P17)/'1.MOTOR DATA'!$D$14</f>
         <v>0.8833333333333333</v>
       </c>
-      <c r="R17" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q17)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R17" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q17)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>78.114864012365814</v>
       </c>
-      <c r="S17" s="39">
-        <f>3*R17^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q17/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S17" s="47">
+        <f>3*R17^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q17/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>38.981551251786897</v>
       </c>
-      <c r="T17" s="45">
+      <c r="T17" s="48">
         <f t="shared" si="1"/>
         <v>1.4287484754450568</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B18" s="44">
+      <c r="B18" s="35">
         <v>400</v>
       </c>
-      <c r="C18" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B18)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C18" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B18)/'1.MOTOR DATA'!$D$14</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="D18" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C18)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D18" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C18)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>75.309860410455912</v>
       </c>
-      <c r="E18" s="39">
-        <f>3*D18^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C18/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E18" s="47">
+        <f>3*D18^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C18/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>30.991236128723791</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="48">
         <f t="shared" si="0"/>
         <v>1.2981578633022031</v>
       </c>
-      <c r="P18" s="44">
+      <c r="P18" s="35">
         <v>400</v>
       </c>
-      <c r="Q18" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P18)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q18" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P18)/'1.MOTOR DATA'!$D$14</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="R18" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q18)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R18" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q18)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>78.079718752754772</v>
       </c>
-      <c r="S18" s="39">
-        <f>3*R18^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q18/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S18" s="47">
+        <f>3*R18^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q18/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>39.695452974072595</v>
       </c>
-      <c r="T18" s="45">
+      <c r="T18" s="48">
         <f t="shared" si="1"/>
         <v>1.662759245923541</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B19" s="44">
+      <c r="B19" s="35">
         <v>450</v>
       </c>
-      <c r="C19" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B19)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C19" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B19)/'1.MOTOR DATA'!$D$14</f>
         <v>0.85</v>
       </c>
-      <c r="D19" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C19)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D19" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C19)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>75.285617249666075</v>
       </c>
-      <c r="E19" s="39">
-        <f>3*D19^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C19/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E19" s="47">
+        <f>3*D19^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C19/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>31.578566553991568</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="48">
         <f t="shared" si="0"/>
         <v>1.4881048904537439</v>
       </c>
-      <c r="P19" s="44">
+      <c r="P19" s="35">
         <v>450</v>
       </c>
-      <c r="Q19" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P19)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q19" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P19)/'1.MOTOR DATA'!$D$14</f>
         <v>0.85</v>
       </c>
-      <c r="R19" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q19)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R19" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q19)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>78.042668158276001</v>
       </c>
-      <c r="S19" s="39">
-        <f>3*R19^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q19/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S19" s="47">
+        <f>3*R19^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q19/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>40.435392838303954</v>
       </c>
-      <c r="T19" s="45">
+      <c r="T19" s="48">
         <f t="shared" si="1"/>
         <v>1.9054729962874952</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B20" s="44">
+      <c r="B20" s="35">
         <v>500</v>
       </c>
-      <c r="C20" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B20)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C20" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B20)/'1.MOTOR DATA'!$D$14</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="D20" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C20)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D20" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C20)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>75.260034951357653</v>
       </c>
-      <c r="E20" s="39">
-        <f>3*D20^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C20/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E20" s="47">
+        <f>3*D20^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C20/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>32.188251384422387</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="48">
         <f t="shared" si="0"/>
         <v>1.6853729013533809</v>
       </c>
-      <c r="P20" s="44">
+      <c r="P20" s="35">
         <v>500</v>
       </c>
-      <c r="Q20" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P20)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q20" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P20)/'1.MOTOR DATA'!$D$14</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R20" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q20)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R20" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q20)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>78.003568188819514</v>
       </c>
-      <c r="S20" s="39">
-        <f>3*R20^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q20/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S20" s="47">
+        <f>3*R20^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q20/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>41.202783832326354</v>
       </c>
-      <c r="T20" s="45">
+      <c r="T20" s="48">
         <f t="shared" si="1"/>
         <v>2.1573727165847463</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B21" s="44">
+      <c r="B21" s="35">
         <v>550</v>
       </c>
-      <c r="C21" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B21)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C21" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B21)/'1.MOTOR DATA'!$D$14</f>
         <v>0.81666666666666665</v>
       </c>
-      <c r="D21" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C21)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D21" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C21)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>75.233009709614223</v>
       </c>
-      <c r="E21" s="39">
-        <f>3*D21^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C21/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E21" s="47">
+        <f>3*D21^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C21/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>32.821569875066636</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="48">
         <f t="shared" si="0"/>
         <v>1.890386717977879</v>
       </c>
-      <c r="P21" s="44">
+      <c r="P21" s="35">
         <v>550</v>
       </c>
-      <c r="Q21" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P21)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q21" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P21)/'1.MOTOR DATA'!$D$14</f>
         <v>0.81666666666666665</v>
       </c>
-      <c r="R21" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q21)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R21" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q21)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>77.962260820441898</v>
       </c>
-      <c r="S21" s="39">
-        <f>3*R21^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q21/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S21" s="47">
+        <f>3*R21^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q21/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>41.999139701021129</v>
       </c>
-      <c r="T21" s="45">
+      <c r="T21" s="48">
         <f t="shared" si="1"/>
         <v>2.4189767936000219</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B22" s="44">
+      <c r="B22" s="35">
         <v>600</v>
       </c>
-      <c r="C22" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B22)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C22" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B22)/'1.MOTOR DATA'!$D$14</f>
         <v>0.8</v>
       </c>
-      <c r="D22" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C22)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D22" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C22)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>75.204427340079974</v>
       </c>
-      <c r="E22" s="39">
-        <f>3*D22^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C22/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E22" s="47">
+        <f>3*D22^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C22/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>33.479898848293814</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="48">
         <f t="shared" si="0"/>
         <v>2.1036040852945845</v>
       </c>
-      <c r="P22" s="44">
+      <c r="P22" s="35">
         <v>600</v>
       </c>
-      <c r="Q22" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P22)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q22" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P22)/'1.MOTOR DATA'!$D$14</f>
         <v>0.8</v>
       </c>
-      <c r="R22" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q22)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R22" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q22)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>77.918572382427797</v>
       </c>
-      <c r="S22" s="39">
-        <f>3*R22^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q22/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S22" s="47">
+        <f>3*R22^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q22/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>42.826083700014429</v>
       </c>
-      <c r="T22" s="45">
+      <c r="T22" s="48">
         <f t="shared" si="1"/>
         <v>2.6908421986797384</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B23" s="44">
+      <c r="B23" s="35">
         <v>650</v>
       </c>
-      <c r="C23" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B23)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C23" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B23)/'1.MOTOR DATA'!$D$14</f>
         <v>0.78333333333333333</v>
       </c>
-      <c r="D23" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C23)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D23" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C23)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>75.174162004231334</v>
       </c>
-      <c r="E23" s="39">
-        <f>3*D23^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C23/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E23" s="47">
+        <f>3*D23^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C23/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>34.164721951461544</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="48">
         <f t="shared" si="0"/>
         <v>2.325518855717406</v>
       </c>
-      <c r="P23" s="44">
+      <c r="P23" s="35">
         <v>650</v>
       </c>
-      <c r="Q23" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P23)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q23" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P23)/'1.MOTOR DATA'!$D$14</f>
         <v>0.78333333333333333</v>
       </c>
-      <c r="R23" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q23)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R23" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q23)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>77.872311659552153</v>
       </c>
-      <c r="S23" s="39">
-        <f>3*R23^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q23/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S23" s="47">
+        <f>3*R23^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q23/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>43.685358220707613</v>
       </c>
-      <c r="T23" s="45">
+      <c r="T23" s="48">
         <f t="shared" si="1"/>
         <v>2.973568009871626</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B24" s="44">
+      <c r="B24" s="35">
         <v>700</v>
       </c>
-      <c r="C24" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B24)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C24" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B24)/'1.MOTOR DATA'!$D$14</f>
         <v>0.76666666666666672</v>
       </c>
-      <c r="D24" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C24)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D24" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C24)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>75.142074746793881</v>
       </c>
-      <c r="E24" s="39">
-        <f>3*D24^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C24/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E24" s="47">
+        <f>3*D24^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C24/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>34.877639956446117</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="48">
         <f t="shared" si="0"/>
         <v>2.5566645407734891</v>
       </c>
-      <c r="P24" s="44">
+      <c r="P24" s="35">
         <v>700</v>
       </c>
-      <c r="Q24" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P24)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q24" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P24)/'1.MOTOR DATA'!$D$14</f>
         <v>0.76666666666666672</v>
       </c>
-      <c r="R24" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q24)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R24" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q24)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>77.823267721049845</v>
       </c>
-      <c r="S24" s="39">
-        <f>3*R24^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q24/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S24" s="47">
+        <f>3*R24^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q24/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>44.578835378973167</v>
       </c>
-      <c r="T24" s="45">
+      <c r="T24" s="48">
         <f t="shared" si="1"/>
         <v>3.2677993070839872</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B25" s="44">
+      <c r="B25" s="35">
         <v>750</v>
       </c>
-      <c r="C25" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B25)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C25" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B25)/'1.MOTOR DATA'!$D$14</f>
         <v>0.75</v>
       </c>
-      <c r="D25" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C25)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D25" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C25)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>75.108011814410077</v>
       </c>
-      <c r="E25" s="39">
-        <f>3*D25^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C25/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E25" s="47">
+        <f>3*D25^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C25/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>35.620382234649973</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="48">
         <f t="shared" si="0"/>
         <v>2.7976182786609187</v>
       </c>
-      <c r="P25" s="44">
+      <c r="P25" s="35">
         <v>750</v>
       </c>
-      <c r="Q25" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P25)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q25" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P25)/'1.MOTOR DATA'!$D$14</f>
         <v>0.75</v>
       </c>
-      <c r="R25" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q25)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R25" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q25)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>77.771207430595041</v>
       </c>
-      <c r="S25" s="39">
-        <f>3*R25^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q25/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S25" s="47">
+        <f>3*R25^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q25/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>45.508528668800835</v>
       </c>
-      <c r="T25" s="45">
+      <c r="T25" s="48">
         <f t="shared" si="1"/>
         <v>3.5742314835396303</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B26" s="44">
+      <c r="B26" s="35">
         <v>800</v>
       </c>
-      <c r="C26" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B26)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C26" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B26)/'1.MOTOR DATA'!$D$14</f>
         <v>0.73333333333333328</v>
       </c>
-      <c r="D26" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C26)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D26" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C26)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>75.07180271742422</v>
       </c>
-      <c r="E26" s="39">
-        <f>3*D26^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C26/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E26" s="47">
+        <f>3*D26^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C26/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>36.394819559807715</v>
       </c>
-      <c r="F26" s="45">
+      <c r="F26" s="48">
         <f t="shared" si="0"/>
         <v>3.0490052735418138</v>
       </c>
-      <c r="P26" s="44">
+      <c r="P26" s="35">
         <v>800</v>
       </c>
-      <c r="Q26" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P26)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q26" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P26)/'1.MOTOR DATA'!$D$14</f>
         <v>0.73333333333333328</v>
       </c>
-      <c r="R26" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q26)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R26" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q26)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>77.71587258287029</v>
       </c>
-      <c r="S26" s="39">
-        <f>3*R26^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q26/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S26" s="47">
+        <f>3*R26^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q26/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>46.476605791390575</v>
       </c>
-      <c r="T26" s="45">
+      <c r="T26" s="48">
         <f t="shared" si="1"/>
         <v>3.8936150218139058</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B27" s="44">
+      <c r="B27" s="35">
         <v>850</v>
       </c>
-      <c r="C27" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B27)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C27" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B27)/'1.MOTOR DATA'!$D$14</f>
         <v>0.71666666666666667</v>
       </c>
-      <c r="D27" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C27)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D27" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C27)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>75.033257989030986</v>
       </c>
-      <c r="E27" s="39">
-        <f>3*D27^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C27/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E27" s="47">
+        <f>3*D27^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C27/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>37.202978412296972</v>
       </c>
-      <c r="F27" s="45">
+      <c r="F27" s="48">
         <f t="shared" si="0"/>
         <v>3.3115037706990686</v>
       </c>
-      <c r="P27" s="44">
+      <c r="P27" s="35">
         <v>850</v>
       </c>
-      <c r="Q27" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P27)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q27" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P27)/'1.MOTOR DATA'!$D$14</f>
         <v>0.71666666666666667</v>
       </c>
-      <c r="R27" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q27)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R27" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q27)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>77.656976601707342</v>
       </c>
-      <c r="S27" s="39">
-        <f>3*R27^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q27/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S27" s="47">
+        <f>3*R27^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q27/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>47.485402779382333</v>
       </c>
-      <c r="T27" s="45">
+      <c r="T27" s="48">
         <f t="shared" si="1"/>
         <v>4.2267607881930296</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B28" s="44">
+      <c r="B28" s="35">
         <v>900</v>
       </c>
-      <c r="C28" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B28)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C28" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B28)/'1.MOTOR DATA'!$D$14</f>
         <v>0.7</v>
       </c>
-      <c r="D28" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C28)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D28" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C28)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>74.992166586691141</v>
       </c>
-      <c r="E28" s="39">
-        <f>3*D28^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C28/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E28" s="47">
+        <f>3*D28^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C28/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>38.047056983053899</v>
       </c>
-      <c r="F28" s="45">
+      <c r="F28" s="48">
         <f t="shared" si="0"/>
         <v>3.5858506412602309</v>
       </c>
-      <c r="P28" s="44">
+      <c r="P28" s="35">
         <v>900</v>
       </c>
-      <c r="Q28" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P28)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q28" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P28)/'1.MOTOR DATA'!$D$14</f>
         <v>0.7</v>
       </c>
-      <c r="R28" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q28)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R28" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q28)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>77.594200721860204</v>
       </c>
-      <c r="S28" s="39">
-        <f>3*R28^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q28/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S28" s="47">
+        <f>3*R28^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q28/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>48.537439544622622</v>
       </c>
-      <c r="T28" s="45">
+      <c r="T28" s="48">
         <f t="shared" si="1"/>
         <v>4.5745459049233528</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B29" s="44">
+      <c r="B29" s="35">
         <v>950</v>
       </c>
-      <c r="C29" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B29)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C29" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B29)/'1.MOTOR DATA'!$D$14</f>
         <v>0.68333333333333335</v>
       </c>
-      <c r="D29" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C29)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D29" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C29)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>74.948292869216985</v>
       </c>
-      <c r="E29" s="39">
-        <f>3*D29^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C29/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E29" s="47">
+        <f>3*D29^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C29/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>38.929443102935601</v>
       </c>
-      <c r="F29" s="45">
+      <c r="F29" s="48">
         <f t="shared" si="0"/>
         <v>3.8728476612499367</v>
       </c>
-      <c r="P29" s="44">
+      <c r="P29" s="35">
         <v>950</v>
       </c>
-      <c r="Q29" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P29)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q29" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P29)/'1.MOTOR DATA'!$D$14</f>
         <v>0.68333333333333335</v>
       </c>
-      <c r="R29" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q29)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R29" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q29)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>77.527189560657987</v>
       </c>
-      <c r="S29" s="39">
-        <f>3*R29^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q29/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S29" s="47">
+        <f>3*R29^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q29/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>49.635436985398549</v>
       </c>
-      <c r="T29" s="45">
+      <c r="T29" s="48">
         <f t="shared" si="1"/>
         <v>4.9379202660498276</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B30" s="44">
+      <c r="B30" s="35">
         <v>1000</v>
       </c>
-      <c r="C30" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B30)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C30" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B30)/'1.MOTOR DATA'!$D$14</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D30" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C30)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D30" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C30)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>74.901373068711365</v>
       </c>
-      <c r="E30" s="39">
-        <f>3*D30^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C30/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E30" s="47">
+        <f>3*D30^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C30/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>39.852734354779507</v>
       </c>
-      <c r="F30" s="45">
+      <c r="F30" s="48">
         <f t="shared" si="0"/>
         <v>4.1733685824813618</v>
       </c>
-      <c r="P30" s="44">
+      <c r="P30" s="35">
         <v>1000</v>
       </c>
-      <c r="Q30" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P30)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q30" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P30)/'1.MOTOR DATA'!$D$14</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="R30" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q30)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R30" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q30)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>77.455545966360773</v>
       </c>
-      <c r="S30" s="39">
-        <f>3*R30^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q30/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S30" s="47">
+        <f>3*R30^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q30/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>50.782335794373282</v>
       </c>
-      <c r="T30" s="45">
+      <c r="T30" s="48">
         <f t="shared" si="1"/>
         <v>5.3179137687911036</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B31" s="44">
+      <c r="B31" s="35">
         <v>1050</v>
       </c>
-      <c r="C31" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B31)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C31" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B31)/'1.MOTOR DATA'!$D$14</f>
         <v>0.65</v>
       </c>
-      <c r="D31" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C31)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D31" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C31)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>74.851111158890433</v>
       </c>
-      <c r="E31" s="39">
-        <f>3*D31^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C31/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E31" s="47">
+        <f>3*D31^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C31/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>40.819760660750035</v>
       </c>
-      <c r="F31" s="45">
+      <c r="F31" s="48">
         <f t="shared" si="0"/>
         <v>4.4883671074587079</v>
       </c>
-      <c r="P31" s="44">
+      <c r="P31" s="35">
         <v>1050</v>
       </c>
-      <c r="Q31" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P31)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q31" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P31)/'1.MOTOR DATA'!$D$14</f>
         <v>0.65</v>
       </c>
-      <c r="R31" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q31)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R31" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q31)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>77.37882500608805</v>
       </c>
-      <c r="S31" s="39">
-        <f>3*R31^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q31/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S31" s="47">
+        <f>3*R31^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q31/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>51.981317110001498</v>
       </c>
-      <c r="T31" s="45">
+      <c r="T31" s="48">
         <f t="shared" si="1"/>
         <v>5.7156443384845739</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B32" s="44">
+      <c r="B32" s="35">
         <v>1100</v>
       </c>
-      <c r="C32" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B32)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C32" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B32)/'1.MOTOR DATA'!$D$14</f>
         <v>0.6333333333333333</v>
       </c>
-      <c r="D32" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C32)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D32" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C32)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>74.797173999300753</v>
       </c>
-      <c r="E32" s="39">
-        <f>3*D32^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C32/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E32" s="47">
+        <f>3*D32^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C32/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>41.833609676976423</v>
       </c>
-      <c r="F32" s="45">
+      <c r="F32" s="48">
         <f t="shared" si="0"/>
         <v>4.8188858972588404</v>
       </c>
-      <c r="P32" s="44">
+      <c r="P32" s="35">
         <v>1100</v>
       </c>
-      <c r="Q32" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P32)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q32" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P32)/'1.MOTOR DATA'!$D$14</f>
         <v>0.6333333333333333</v>
       </c>
-      <c r="R32" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q32)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R32" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q32)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>77.296526926532806</v>
       </c>
-      <c r="S32" s="39">
-        <f>3*R32^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q32/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S32" s="47">
+        <f>3*R32^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q32/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>53.235825149752948</v>
       </c>
-      <c r="T32" s="45">
+      <c r="T32" s="48">
         <f t="shared" si="1"/>
         <v>6.1323268306026693</v>
       </c>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B33" s="44">
+      <c r="B33" s="35">
         <v>1150</v>
       </c>
-      <c r="C33" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B33)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C33" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B33)/'1.MOTOR DATA'!$D$14</f>
         <v>0.6166666666666667</v>
       </c>
-      <c r="D33" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C33)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D33" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C33)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>74.739185607348318</v>
       </c>
-      <c r="E33" s="39">
-        <f>3*D33^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C33/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E33" s="47">
+        <f>3*D33^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C33/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>42.897655370897148</v>
       </c>
-      <c r="F33" s="45">
+      <c r="F33" s="48">
         <f t="shared" si="0"/>
         <v>5.1660667604950934</v>
       </c>
-      <c r="P33" s="44">
+      <c r="P33" s="35">
         <v>1150</v>
       </c>
-      <c r="Q33" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P33)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q33" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P33)/'1.MOTOR DATA'!$D$14</f>
         <v>0.6166666666666667</v>
       </c>
-      <c r="R33" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q33)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R33" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q33)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>77.208088883803242</v>
       </c>
-      <c r="S33" s="39">
-        <f>3*R33^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q33/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S33" s="47">
+        <f>3*R33^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q33/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>54.549591949788258</v>
       </c>
-      <c r="T33" s="45">
+      <c r="T33" s="48">
         <f t="shared" si="1"/>
         <v>6.5692828974880682</v>
       </c>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B34" s="44">
+      <c r="B34" s="35">
         <v>1200</v>
       </c>
-      <c r="C34" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B34)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C34" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B34)/'1.MOTOR DATA'!$D$14</f>
         <v>0.6</v>
       </c>
-      <c r="D34" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C34)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D34" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C34)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>74.676720375309628</v>
       </c>
-      <c r="E34" s="39">
-        <f>3*D34^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C34/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E34" s="47">
+        <f>3*D34^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C34/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>44.015590203675401</v>
       </c>
-      <c r="F34" s="45">
+      <c r="F34" s="48">
         <f t="shared" si="0"/>
         <v>5.5311621930914203</v>
       </c>
-      <c r="P34" s="44">
+      <c r="P34" s="35">
         <v>1200</v>
       </c>
-      <c r="Q34" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P34)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q34" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P34)/'1.MOTOR DATA'!$D$14</f>
         <v>0.6</v>
       </c>
-      <c r="R34" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q34)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R34" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q34)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>77.112875192702049</v>
       </c>
-      <c r="S34" s="39">
-        <f>3*R34^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q34/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S34" s="47">
+        <f>3*R34^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q34/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>55.926664308151096</v>
       </c>
-      <c r="T34" s="45">
+      <c r="T34" s="48">
         <f t="shared" si="1"/>
         <v>7.027951909210798</v>
       </c>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B35" s="44">
+      <c r="B35" s="35">
         <v>1250</v>
       </c>
-      <c r="C35" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B35)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C35" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B35)/'1.MOTOR DATA'!$D$14</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="D35" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C35)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D35" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C35)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>74.609295005516586</v>
       </c>
-      <c r="E35" s="39">
-        <f>3*D35^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C35/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E35" s="47">
+        <f>3*D35^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C35/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>45.191461389455966</v>
       </c>
-      <c r="F35" s="45">
+      <c r="F35" s="48">
         <f t="shared" si="0"/>
         <v>5.9155484627542352</v>
       </c>
-      <c r="P35" s="44">
+      <c r="P35" s="35">
         <v>1250</v>
       </c>
-      <c r="Q35" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P35)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q35" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P35)/'1.MOTOR DATA'!$D$14</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="R35" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q35)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R35" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q35)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>77.010165788029482</v>
       </c>
-      <c r="S35" s="39">
-        <f>3*R35^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q35/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S35" s="47">
+        <f>3*R35^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q35/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>57.371432980346128</v>
       </c>
-      <c r="T35" s="45">
+      <c r="T35" s="48">
         <f t="shared" si="1"/>
         <v>7.5099030157072741</v>
       </c>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B36" s="44">
+      <c r="B36" s="35">
         <v>1300</v>
       </c>
-      <c r="C36" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B36)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C36" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B36)/'1.MOTOR DATA'!$D$14</f>
         <v>0.56666666666666665</v>
       </c>
-      <c r="D36" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C36)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D36" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C36)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>74.53635888095242</v>
       </c>
-      <c r="E36" s="39">
-        <f>3*D36^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C36/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E36" s="47">
+        <f>3*D36^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C36/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>46.429711752997676</v>
       </c>
-      <c r="F36" s="45">
+      <c r="F36" s="48">
         <f t="shared" si="0"/>
         <v>6.3207404585653979</v>
       </c>
-      <c r="P36" s="44">
+      <c r="P36" s="35">
         <v>1300</v>
       </c>
-      <c r="Q36" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P36)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q36" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P36)/'1.MOTOR DATA'!$D$14</f>
         <v>0.56666666666666665</v>
       </c>
-      <c r="R36" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q36)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R36" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q36)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>76.89914251779085</v>
       </c>
-      <c r="S36" s="39">
-        <f>3*R36^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q36/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S36" s="47">
+        <f>3*R36^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q36/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>58.888664097716578</v>
       </c>
-      <c r="T36" s="45">
+      <c r="T36" s="48">
         <f t="shared" si="1"/>
         <v>8.0168484287278137</v>
       </c>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B37" s="44">
+      <c r="B37" s="35">
         <v>1350</v>
       </c>
-      <c r="C37" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B37)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C37" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B37)/'1.MOTOR DATA'!$D$14</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="D37" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C37)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D37" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C37)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>74.457282516911803</v>
       </c>
-      <c r="E37" s="39">
-        <f>3*D37^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C37/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E37" s="47">
+        <f>3*D37^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C37/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>47.735225753639142</v>
       </c>
-      <c r="F37" s="45">
+      <c r="F37" s="48">
         <f t="shared" si="0"/>
         <v>6.7484085545287362</v>
       </c>
-      <c r="P37" s="44">
+      <c r="P37" s="35">
         <v>1350</v>
       </c>
-      <c r="Q37" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P37)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q37" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P37)/'1.MOTOR DATA'!$D$14</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="R37" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q37)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R37" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q37)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>76.77887279618983</v>
       </c>
-      <c r="S37" s="39">
-        <f>3*R37^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q37/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S37" s="47">
+        <f>3*R37^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q37/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>60.483532656443451</v>
       </c>
-      <c r="T37" s="45">
+      <c r="T37" s="48">
         <f t="shared" si="1"/>
         <v>8.5506579835488488</v>
       </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B38" s="44">
+      <c r="B38" s="35">
         <v>1400</v>
       </c>
-      <c r="C38" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B38)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C38" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B38)/'1.MOTOR DATA'!$D$14</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="D38" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C38)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D38" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C38)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>74.371343647280014</v>
       </c>
-      <c r="E38" s="39">
-        <f>3*D38^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C38/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E38" s="47">
+        <f>3*D38^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C38/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>49.113381280419397</v>
       </c>
-      <c r="F38" s="45">
+      <c r="F38" s="48">
         <f t="shared" si="0"/>
         <v>7.2003977650976019</v>
       </c>
-      <c r="P38" s="44">
+      <c r="P38" s="35">
         <v>1400</v>
       </c>
-      <c r="Q38" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P38)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q38" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P38)/'1.MOTOR DATA'!$D$14</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="R38" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q38)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R38" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q38)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>76.648290027333218</v>
       </c>
-      <c r="S38" s="39">
-        <f>3*R38^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q38/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S38" s="47">
+        <f>3*R38^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q38/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>62.161657738296945</v>
       </c>
-      <c r="T38" s="45">
+      <c r="T38" s="48">
         <f t="shared" si="1"/>
         <v>9.1133750066611849</v>
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B39" s="44">
+      <c r="B39" s="35">
         <v>1450</v>
       </c>
-      <c r="C39" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B39)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C39" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B39)/'1.MOTOR DATA'!$D$14</f>
         <v>0.51666666666666672</v>
       </c>
-      <c r="D39" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C39)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D39" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C39)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>74.277710379794087</v>
       </c>
-      <c r="E39" s="39">
-        <f>3*D39^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C39/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E39" s="47">
+        <f>3*D39^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C39/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>50.570107840322777</v>
       </c>
-      <c r="F39" s="45">
+      <c r="F39" s="48">
         <f t="shared" si="0"/>
         <v>7.6787494986494131</v>
       </c>
-      <c r="P39" s="44">
+      <c r="P39" s="35">
         <v>1450</v>
       </c>
-      <c r="Q39" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P39)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q39" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P39)/'1.MOTOR DATA'!$D$14</f>
         <v>0.51666666666666672</v>
       </c>
-      <c r="R39" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q39)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R39" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q39)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>76.506170061177713</v>
       </c>
-      <c r="S39" s="39">
-        <f>3*R39^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q39/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S39" s="47">
+        <f>3*R39^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q39/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>63.929138844698244</v>
       </c>
-      <c r="T39" s="45">
+      <c r="T39" s="48">
         <f t="shared" si="1"/>
         <v>9.7072334589999194</v>
       </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B40" s="44">
+      <c r="B40" s="35">
         <v>1500</v>
       </c>
-      <c r="C40" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B40)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C40" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B40)/'1.MOTOR DATA'!$D$14</f>
         <v>0.5</v>
       </c>
-      <c r="D40" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C40)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D40" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C40)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>74.175420699445951</v>
       </c>
-      <c r="E40" s="39">
-        <f>3*D40^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C40/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E40" s="47">
+        <f>3*D40^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C40/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>52.11195174275754</v>
       </c>
-      <c r="F40" s="45">
+      <c r="F40" s="48">
         <f t="shared" si="0"/>
         <v>8.185726237963646</v>
       </c>
-      <c r="P40" s="44">
+      <c r="P40" s="35">
         <v>1500</v>
       </c>
-      <c r="Q40" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P40)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q40" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P40)/'1.MOTOR DATA'!$D$14</f>
         <v>0.5</v>
       </c>
-      <c r="R40" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q40)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R40" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q40)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>76.351102751493627</v>
       </c>
-      <c r="S40" s="39">
-        <f>3*R40^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q40/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S40" s="47">
+        <f>3*R40^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q40/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>65.792592311603599</v>
       </c>
-      <c r="T40" s="45">
+      <c r="T40" s="48">
         <f t="shared" si="1"/>
         <v>10.334676233338108</v>
       </c>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B41" s="44">
+      <c r="B41" s="35">
         <v>1550</v>
       </c>
-      <c r="C41" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B41)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C41" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B41)/'1.MOTOR DATA'!$D$14</f>
         <v>0.48333333333333334</v>
       </c>
-      <c r="D41" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C41)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D41" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C41)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>74.063357395810669</v>
       </c>
-      <c r="E41" s="39">
-        <f>3*D41^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C41/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E41" s="47">
+        <f>3*D41^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C41/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>53.746148802676672</v>
       </c>
-      <c r="F41" s="45">
+      <c r="F41" s="48">
         <f t="shared" si="0"/>
         <v>8.7238394889236996</v>
       </c>
-      <c r="P41" s="44">
+      <c r="P41" s="35">
         <v>1550</v>
       </c>
-      <c r="Q41" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P41)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q41" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P41)/'1.MOTOR DATA'!$D$14</f>
         <v>0.48333333333333334</v>
       </c>
-      <c r="R41" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q41)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R41" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q41)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>76.181457438288049</v>
       </c>
-      <c r="S41" s="39">
-        <f>3*R41^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q41/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S41" s="47">
+        <f>3*R41^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q41/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>67.7591861639239</v>
       </c>
-      <c r="T41" s="45">
+      <c r="T41" s="48">
         <f t="shared" si="1"/>
         <v>10.9983743424</v>
       </c>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B42" s="44">
+      <c r="B42" s="35">
         <v>1600</v>
       </c>
-      <c r="C42" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B42)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C42" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B42)/'1.MOTOR DATA'!$D$14</f>
         <v>0.46666666666666667</v>
       </c>
-      <c r="D42" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C42)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D42" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C42)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>73.940217221823701</v>
       </c>
-      <c r="E42" s="39">
-        <f>3*D42^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C42/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E42" s="47">
+        <f>3*D42^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C42/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>55.480704901492579</v>
       </c>
-      <c r="F42" s="45">
+      <c r="F42" s="48">
         <f t="shared" si="0"/>
         <v>9.2958813298406575</v>
       </c>
-      <c r="P42" s="44">
+      <c r="P42" s="35">
         <v>1600</v>
       </c>
-      <c r="Q42" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P42)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q42" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P42)/'1.MOTOR DATA'!$D$14</f>
         <v>0.46666666666666667</v>
       </c>
-      <c r="R42" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q42)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R42" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q42)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>75.995340856545027</v>
       </c>
-      <c r="S42" s="39">
-        <f>3*R42^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q42/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S42" s="47">
+        <f>3*R42^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q42/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>69.836670876989871</v>
       </c>
-      <c r="T42" s="45">
+      <c r="T42" s="48">
         <f t="shared" si="1"/>
         <v>11.701246516177049</v>
       </c>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B43" s="44">
+      <c r="B43" s="35">
         <v>1650</v>
       </c>
-      <c r="C43" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B43)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C43" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B43)/'1.MOTOR DATA'!$D$14</f>
         <v>0.45</v>
       </c>
-      <c r="D43" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C43)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D43" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C43)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>73.804472735281578</v>
       </c>
-      <c r="E43" s="39">
-        <f>3*D43^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C43/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E43" s="47">
+        <f>3*D43^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C43/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>57.32448439517826</v>
       </c>
-      <c r="F43" s="45">
+      <c r="F43" s="48">
         <f t="shared" si="0"/>
         <v>9.9049598475693106</v>
       </c>
-      <c r="P43" s="44">
+      <c r="P43" s="35">
         <v>1650</v>
       </c>
-      <c r="Q43" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P43)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q43" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P43)/'1.MOTOR DATA'!$D$14</f>
         <v>0.45</v>
       </c>
-      <c r="R43" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q43)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R43" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q43)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>75.790545555584387</v>
       </c>
-      <c r="S43" s="39">
-        <f>3*R43^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q43/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S43" s="47">
+        <f>3*R43^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q43/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>72.033402211056782</v>
       </c>
-      <c r="T43" s="45">
+      <c r="T43" s="48">
         <f t="shared" si="1"/>
         <v>12.44647839596341</v>
       </c>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B44" s="44">
+      <c r="B44" s="35">
         <v>1700</v>
       </c>
-      <c r="C44" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B44)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C44" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B44)/'1.MOTOR DATA'!$D$14</f>
         <v>0.43333333333333335</v>
       </c>
-      <c r="D44" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C44)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D44" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C44)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>73.654324797917923</v>
       </c>
-      <c r="E44" s="39">
-        <f>3*D44^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C44/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E44" s="47">
+        <f>3*D44^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C44/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>59.287305742319624</v>
       </c>
-      <c r="F44" s="45">
+      <c r="F44" s="48">
         <f t="shared" si="0"/>
         <v>10.554538636368184</v>
       </c>
-      <c r="P44" s="44">
+      <c r="P44" s="35">
         <v>1700</v>
       </c>
-      <c r="Q44" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P44)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q44" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P44)/'1.MOTOR DATA'!$D$14</f>
         <v>0.43333333333333335</v>
       </c>
-      <c r="R44" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q44)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R44" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q44)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>75.564486366883557</v>
       </c>
-      <c r="S44" s="39">
-        <f>3*R44^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q44/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S44" s="47">
+        <f>3*R44^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q44/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>74.358350385644968</v>
       </c>
-      <c r="T44" s="45">
+      <c r="T44" s="48">
         <f t="shared" si="1"/>
         <v>13.237540013927219</v>
       </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B45" s="44">
+      <c r="B45" s="35">
         <v>1750</v>
       </c>
-      <c r="C45" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B45)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C45" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B45)/'1.MOTOR DATA'!$D$14</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="D45" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C45)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D45" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C45)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>73.487643065172605</v>
       </c>
-      <c r="E45" s="39">
-        <f>3*D45^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C45/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E45" s="47">
+        <f>3*D45^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C45/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>61.380042683680529</v>
       </c>
-      <c r="F45" s="45">
+      <c r="F45" s="48">
         <f t="shared" si="0"/>
         <v>11.248480318371255</v>
       </c>
-      <c r="P45" s="44">
+      <c r="P45" s="35">
         <v>1750</v>
       </c>
-      <c r="Q45" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P45)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q45" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P45)/'1.MOTOR DATA'!$D$14</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="R45" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q45)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R45" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q45)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>75.314121739772816</v>
       </c>
-      <c r="S45" s="39">
-        <f>3*R45^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q45/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S45" s="47">
+        <f>3*R45^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q45/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>76.821087088111895</v>
       </c>
-      <c r="T45" s="45">
+      <c r="T45" s="48">
         <f t="shared" si="1"/>
         <v>14.078199498812985</v>
       </c>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B46" s="44">
+      <c r="B46" s="35">
         <v>1800</v>
       </c>
-      <c r="C46" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B46)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C46" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B46)/'1.MOTOR DATA'!$D$14</f>
         <v>0.4</v>
       </c>
-      <c r="D46" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C46)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D46" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C46)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>73.301890928979873</v>
       </c>
-      <c r="E46" s="39">
-        <f>3*D46^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C46/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E46" s="47">
+        <f>3*D46^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C46/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>63.614727590620248</v>
       </c>
-      <c r="F46" s="45">
+      <c r="F46" s="48">
         <f t="shared" si="0"/>
         <v>11.991093651528509</v>
       </c>
-      <c r="P46" s="44">
+      <c r="P46" s="35">
         <v>1800</v>
       </c>
-      <c r="Q46" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P46)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q46" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P46)/'1.MOTOR DATA'!$D$14</f>
         <v>0.4</v>
       </c>
-      <c r="R46" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q46)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R46" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q46)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>75.035855815844371</v>
       </c>
-      <c r="S46" s="39">
-        <f>3*R46^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q46/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S46" s="47">
+        <f>3*R46^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q46/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>79.431737758578649</v>
       </c>
-      <c r="T46" s="45">
+      <c r="T46" s="48">
         <f t="shared" si="1"/>
         <v>14.972529828253299</v>
       </c>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B47" s="44">
+      <c r="B47" s="35">
         <v>1850</v>
       </c>
-      <c r="C47" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B47)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C47" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B47)/'1.MOTOR DATA'!$D$14</f>
         <v>0.38333333333333336</v>
       </c>
-      <c r="D47" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C47)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D47" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C47)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>73.094030185411967</v>
       </c>
-      <c r="E47" s="39">
-        <f>3*D47^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C47/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E47" s="47">
+        <f>3*D47^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C47/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>66.004650819581329</v>
       </c>
-      <c r="F47" s="45">
+      <c r="F47" s="48">
         <f t="shared" si="0"/>
         <v>12.787183110582635</v>
       </c>
-      <c r="P47" s="44">
+      <c r="P47" s="35">
         <v>1850</v>
       </c>
-      <c r="Q47" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P47)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q47" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P47)/'1.MOTOR DATA'!$D$14</f>
         <v>0.38333333333333336</v>
       </c>
-      <c r="R47" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q47)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R47" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q47)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>74.725415855733814</v>
       </c>
-      <c r="S47" s="39">
-        <f>3*R47^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q47/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S47" s="47">
+        <f>3*R47^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q47/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>82.200880658877466</v>
       </c>
-      <c r="T47" s="45">
+      <c r="T47" s="48">
         <f t="shared" si="1"/>
         <v>15.924903772453346</v>
       </c>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B48" s="44">
+      <c r="B48" s="35">
         <v>1900</v>
       </c>
-      <c r="C48" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B48)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C48" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B48)/'1.MOTOR DATA'!$D$14</f>
         <v>0.36666666666666664</v>
       </c>
-      <c r="D48" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C48)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D48" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C48)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>72.860399059137151</v>
       </c>
-      <c r="E48" s="39">
-        <f>3*D48^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C48/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E48" s="47">
+        <f>3*D48^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C48/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>68.564445439656836</v>
       </c>
-      <c r="F48" s="45">
+      <c r="F48" s="48">
         <f t="shared" si="0"/>
         <v>13.642098679076661</v>
       </c>
-      <c r="P48" s="44">
+      <c r="P48" s="35">
         <v>1900</v>
       </c>
-      <c r="Q48" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P48)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q48" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P48)/'1.MOTOR DATA'!$D$14</f>
         <v>0.36666666666666664</v>
       </c>
-      <c r="R48" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q48)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R48" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q48)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>74.377697960625667</v>
       </c>
-      <c r="S48" s="39">
-        <f>3*R48^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q48/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S48" s="47">
+        <f>3*R48^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q48/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>85.139365521911159</v>
       </c>
-      <c r="T48" s="45">
+      <c r="T48" s="48">
         <f t="shared" si="1"/>
         <v>16.939969666145711</v>
       </c>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B49" s="44">
+      <c r="B49" s="35">
         <v>1950</v>
       </c>
-      <c r="C49" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B49)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C49" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B49)/'1.MOTOR DATA'!$D$14</f>
         <v>0.35</v>
       </c>
-      <c r="D49" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C49)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D49" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C49)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>72.596554940743061</v>
       </c>
-      <c r="E49" s="39">
-        <f>3*D49^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C49/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E49" s="47">
+        <f>3*D49^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C49/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>71.310139542922471</v>
       </c>
-      <c r="F49" s="45">
+      <c r="F49" s="48">
         <f t="shared" si="0"/>
         <v>14.561781683443034</v>
       </c>
-      <c r="P49" s="44">
+      <c r="P49" s="35">
         <v>1950</v>
       </c>
-      <c r="Q49" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P49)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q49" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P49)/'1.MOTOR DATA'!$D$14</f>
         <v>0.35</v>
       </c>
-      <c r="R49" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q49)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R49" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q49)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>73.986571804559432</v>
       </c>
-      <c r="S49" s="39">
-        <f>3*R49^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q49/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S49" s="47">
+        <f>3*R49^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q49/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>88.258011758406795</v>
       </c>
-      <c r="T49" s="45">
+      <c r="T49" s="48">
         <f t="shared" si="1"/>
         <v>18.022596888442404</v>
       </c>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B50" s="44">
+      <c r="B50" s="35">
         <v>2000</v>
       </c>
-      <c r="C50" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B50)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C50" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B50)/'1.MOTOR DATA'!$D$14</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D50" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C50)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D50" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C50)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>72.29707001119705</v>
       </c>
-      <c r="E50" s="39">
-        <f>3*D50^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C50/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E50" s="47">
+        <f>3*D50^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C50/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>74.259146901063716</v>
       </c>
-      <c r="F50" s="45">
+      <c r="F50" s="48">
         <f t="shared" si="0"/>
         <v>15.552799357748468</v>
       </c>
-      <c r="P50" s="44">
+      <c r="P50" s="35">
         <v>2000</v>
       </c>
-      <c r="Q50" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P50)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q50" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P50)/'1.MOTOR DATA'!$D$14</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="R50" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q50)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R50" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q50)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>73.544632126906762</v>
       </c>
-      <c r="S50" s="39">
-        <f>3*R50^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q50/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S50" s="47">
+        <f>3*R50^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q50/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>91.567127288666285</v>
       </c>
-      <c r="T50" s="45">
+      <c r="T50" s="48">
         <f t="shared" si="1"/>
         <v>19.1777742933597</v>
       </c>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B51" s="44">
+      <c r="B51" s="35">
         <v>2050</v>
       </c>
-      <c r="C51" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B51)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C51" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B51)/'1.MOTOR DATA'!$D$14</f>
         <v>0.31666666666666665</v>
       </c>
-      <c r="D51" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C51)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D51" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C51)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>71.955263448752618</v>
       </c>
-      <c r="E51" s="39">
-        <f>3*D51^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C51/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E51" s="47">
+        <f>3*D51^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C51/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>77.430148408546145</v>
       </c>
-      <c r="F51" s="45">
+      <c r="F51" s="48">
         <f t="shared" si="0"/>
         <v>16.622355669454823</v>
       </c>
-      <c r="P51" s="44">
+      <c r="P51" s="35">
         <v>2050</v>
       </c>
-      <c r="Q51" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P51)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q51" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P51)/'1.MOTOR DATA'!$D$14</f>
         <v>0.31666666666666665</v>
       </c>
-      <c r="R51" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q51)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R51" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q51)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>73.042880788785197</v>
       </c>
-      <c r="S51" s="39">
-        <f>3*R51^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q51/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S51" s="47">
+        <f>3*R51^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q51/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>95.07576112340459</v>
       </c>
-      <c r="T51" s="45">
+      <c r="T51" s="48">
         <f t="shared" si="1"/>
         <v>20.410436366449304</v>
       </c>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B52" s="44">
+      <c r="B52" s="35">
         <v>2100</v>
       </c>
-      <c r="C52" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B52)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C52" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B52)/'1.MOTOR DATA'!$D$14</f>
         <v>0.3</v>
       </c>
-      <c r="D52" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C52)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D52" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C52)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>71.562847569811595</v>
       </c>
-      <c r="E52" s="39">
-        <f>3*D52^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C52/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E52" s="47">
+        <f>3*D52^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C52/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>80.842787346452567</v>
       </c>
-      <c r="F52" s="45">
+      <c r="F52" s="48">
         <f t="shared" si="0"/>
         <v>17.778257477633613</v>
       </c>
-      <c r="P52" s="44">
+      <c r="P52" s="35">
         <v>2100</v>
       </c>
-      <c r="Q52" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P52)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q52" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P52)/'1.MOTOR DATA'!$D$14</f>
         <v>0.3</v>
       </c>
-      <c r="R52" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q52)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R52" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q52)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>72.470317978909023</v>
       </c>
-      <c r="S52" s="39">
-        <f>3*R52^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q52/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S52" s="47">
+        <f>3*R52^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q52/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>98.790561491647821</v>
       </c>
-      <c r="T52" s="45">
+      <c r="T52" s="48">
         <f t="shared" si="1"/>
         <v>21.725179155832002</v>
       </c>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B53" s="44">
+      <c r="B53" s="35">
         <v>2150</v>
       </c>
-      <c r="C53" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B53)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C53" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B53)/'1.MOTOR DATA'!$D$14</f>
         <v>0.28333333333333333</v>
       </c>
-      <c r="D53" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C53)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D53" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C53)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>71.109456226326628</v>
       </c>
-      <c r="E53" s="39">
-        <f>3*D53^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C53/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E53" s="47">
+        <f>3*D53^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C53/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>84.517054146445105</v>
       </c>
-      <c r="F53" s="45">
+      <c r="F53" s="48">
         <f t="shared" si="0"/>
         <v>19.028801209349126</v>
       </c>
-      <c r="P53" s="44">
+      <c r="P53" s="35">
         <v>2150</v>
       </c>
-      <c r="Q53" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P53)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q53" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P53)/'1.MOTOR DATA'!$D$14</f>
         <v>0.28333333333333333</v>
       </c>
-      <c r="R53" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q53)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R53" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q53)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>71.813414330261125</v>
       </c>
-      <c r="S53" s="39">
-        <f>3*R53^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q53/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S53" s="47">
+        <f>3*R53^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q53/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>102.71405025739759</v>
       </c>
-      <c r="T53" s="45">
+      <c r="T53" s="48">
         <f t="shared" si="1"/>
         <v>23.125808909151665</v>
       </c>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B54" s="44">
+      <c r="B54" s="35">
         <v>2200</v>
       </c>
-      <c r="C54" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B54)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C54" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B54)/'1.MOTOR DATA'!$D$14</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="D54" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C54)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D54" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C54)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>70.582010895782972</v>
       </c>
-      <c r="E54" s="39">
-        <f>3*D54^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C54/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E54" s="47">
+        <f>3*D54^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C54/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>88.472159790584357</v>
       </c>
-      <c r="F54" s="45">
+      <c r="F54" s="48">
         <f t="shared" si="0"/>
         <v>20.382522397990286</v>
       </c>
-      <c r="P54" s="44">
+      <c r="P54" s="35">
         <v>2200</v>
       </c>
-      <c r="Q54" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P54)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q54" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P54)/'1.MOTOR DATA'!$D$14</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="R54" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q54)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R54" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q54)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>71.055426967249517</v>
       </c>
-      <c r="S54" s="39">
-        <f>3*R54^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q54/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S54" s="47">
+        <f>3*R54^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q54/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>106.84203451429961</v>
       </c>
-      <c r="T54" s="45">
+      <c r="T54" s="48">
         <f t="shared" si="1"/>
         <v>24.614637719812123</v>
       </c>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B55" s="44">
+      <c r="B55" s="35">
         <v>2250</v>
       </c>
-      <c r="C55" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B55)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C55" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B55)/'1.MOTOR DATA'!$D$14</f>
         <v>0.25</v>
       </c>
-      <c r="D55" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C55)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D55" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C55)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>69.963861518302778</v>
       </c>
-      <c r="E55" s="39">
-        <f>3*D55^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C55/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E55" s="47">
+        <f>3*D55^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C55/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>92.724572850944995</v>
       </c>
-      <c r="F55" s="45">
+      <c r="F55" s="48">
         <f t="shared" si="0"/>
         <v>21.847712765683529</v>
       </c>
-      <c r="P55" s="44">
+      <c r="P55" s="35">
         <v>2250</v>
       </c>
-      <c r="Q55" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P55)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q55" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P55)/'1.MOTOR DATA'!$D$14</f>
         <v>0.25</v>
       </c>
-      <c r="R55" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q55)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R55" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q55)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>70.175511716208192</v>
       </c>
-      <c r="S55" s="39">
-        <f>3*R55^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q55/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S55" s="47">
+        <f>3*R55^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q55/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>111.15974515581811</v>
       </c>
-      <c r="T55" s="45">
+      <c r="T55" s="48">
         <f t="shared" si="1"/>
         <v>26.191397906732384</v>
       </c>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B56" s="44">
+      <c r="B56" s="35">
         <v>2300</v>
       </c>
-      <c r="C56" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B56)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C56" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B56)/'1.MOTOR DATA'!$D$14</f>
         <v>0.23333333333333334</v>
       </c>
-      <c r="D56" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C56)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D56" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C56)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>69.233613078275823</v>
       </c>
-      <c r="E56" s="39">
-        <f>3*D56^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C56/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E56" s="47">
+        <f>3*D56^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C56/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>97.284693504991225</v>
       </c>
-      <c r="F56" s="45">
+      <c r="F56" s="48">
         <f t="shared" si="0"/>
         <v>23.431547345687825</v>
       </c>
-      <c r="P56" s="44">
+      <c r="P56" s="35">
         <v>2300</v>
       </c>
-      <c r="Q56" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P56)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q56" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P56)/'1.MOTOR DATA'!$D$14</f>
         <v>0.23333333333333334</v>
       </c>
-      <c r="R56" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q56)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R56" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q56)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>69.147571319553336</v>
       </c>
-      <c r="S56" s="39">
-        <f>3*R56^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q56/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S56" s="47">
+        <f>3*R56^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q56/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>115.6361040769002</v>
       </c>
-      <c r="T56" s="45">
+      <c r="T56" s="48">
         <f t="shared" si="1"/>
         <v>27.851584354426301</v>
       </c>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B57" s="44">
+      <c r="B57" s="35">
         <v>2350</v>
       </c>
-      <c r="C57" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B57)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C57" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B57)/'1.MOTOR DATA'!$D$14</f>
         <v>0.21666666666666667</v>
       </c>
-      <c r="D57" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C57)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D57" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C57)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>68.363512574118232</v>
       </c>
-      <c r="E57" s="39">
-        <f>3*D57^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C57/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E57" s="47">
+        <f>3*D57^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C57/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>102.15131064272119</v>
       </c>
-      <c r="F57" s="45">
+      <c r="F57" s="48">
         <f t="shared" si="0"/>
         <v>25.138561553796436</v>
       </c>
-      <c r="P57" s="44">
+      <c r="P57" s="35">
         <v>2350</v>
       </c>
-      <c r="Q57" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P57)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q57" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P57)/'1.MOTOR DATA'!$D$14</f>
         <v>0.21666666666666667</v>
       </c>
-      <c r="R57" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q57)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R57" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q57)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>67.938767339802226</v>
       </c>
-      <c r="S57" s="39">
-        <f>3*R57^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q57/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S57" s="47">
+        <f>3*R57^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q57/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>120.21525961123191</v>
       </c>
-      <c r="T57" s="45">
+      <c r="T57" s="48">
         <f t="shared" si="1"/>
         <v>29.583944488116146</v>
       </c>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B58" s="44">
+      <c r="B58" s="35">
         <v>2400</v>
       </c>
-      <c r="C58" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B58)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C58" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B58)/'1.MOTOR DATA'!$D$14</f>
         <v>0.2</v>
       </c>
-      <c r="D58" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C58)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D58" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C58)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>67.31722199696199</v>
       </c>
-      <c r="E58" s="39">
-        <f>3*D58^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C58/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E58" s="47">
+        <f>3*D58^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C58/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>107.30246091596335</v>
       </c>
-      <c r="F58" s="45">
+      <c r="F58" s="48">
         <f t="shared" si="0"/>
         <v>26.968049834055709</v>
       </c>
-      <c r="P58" s="44">
+      <c r="P58" s="35">
         <v>2400</v>
       </c>
-      <c r="Q58" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P58)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q58" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P58)/'1.MOTOR DATA'!$D$14</f>
         <v>0.2</v>
       </c>
-      <c r="R58" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q58)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R58" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q58)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>66.507616521260488</v>
       </c>
-      <c r="S58" s="39">
-        <f>3*R58^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q58/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S58" s="47">
+        <f>3*R58^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q58/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>124.80418458058094</v>
       </c>
-      <c r="T58" s="45">
+      <c r="T58" s="48">
         <f t="shared" si="1"/>
         <v>31.366712753249409</v>
       </c>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B59" s="44">
+      <c r="B59" s="35">
         <v>2450</v>
       </c>
-      <c r="C59" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B59)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C59" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B59)/'1.MOTOR DATA'!$D$14</f>
         <v>0.18333333333333332</v>
       </c>
-      <c r="D59" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C59)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D59" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C59)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>66.046741434164446</v>
       </c>
-      <c r="E59" s="39">
-        <f>3*D59^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C59/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E59" s="47">
+        <f>3*D59^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C59/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>112.6804735321174</v>
       </c>
-      <c r="F59" s="45">
+      <c r="F59" s="48">
         <f t="shared" si="0"/>
         <v>28.909685407874065</v>
       </c>
-      <c r="P59" s="44">
+      <c r="P59" s="35">
         <v>2450</v>
       </c>
-      <c r="Q59" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P59)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q59" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P59)/'1.MOTOR DATA'!$D$14</f>
         <v>0.18333333333333332</v>
       </c>
-      <c r="R59" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q59)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R59" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q59)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>64.801602329974244</v>
       </c>
-      <c r="S59" s="39">
-        <f>3*R59^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q59/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S59" s="47">
+        <f>3*R59^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q59/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>129.25472539996193</v>
       </c>
-      <c r="T59" s="45">
+      <c r="T59" s="48">
         <f t="shared" si="1"/>
         <v>33.162031820260061</v>
       </c>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B60" s="44">
+      <c r="B60" s="35">
         <v>2500</v>
       </c>
-      <c r="C60" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B60)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C60" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B60)/'1.MOTOR DATA'!$D$14</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D60" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C60)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D60" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C60)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>64.48818162865669</v>
       </c>
-      <c r="E60" s="39">
-        <f>3*D60^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C60/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E60" s="47">
+        <f>3*D60^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C60/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>118.16771020298484</v>
       </c>
-      <c r="F60" s="45">
+      <c r="F60" s="48">
         <f t="shared" si="0"/>
         <v>30.936234188768733</v>
       </c>
-      <c r="P60" s="44">
+      <c r="P60" s="35">
         <v>2500</v>
       </c>
-      <c r="Q60" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P60)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q60" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P60)/'1.MOTOR DATA'!$D$14</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="R60" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q60)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R60" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q60)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>62.754284062158717</v>
       </c>
-      <c r="S60" s="39">
-        <f>3*R60^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q60/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S60" s="47">
+        <f>3*R60^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q60/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>133.3381372441435</v>
       </c>
-      <c r="T60" s="45">
+      <c r="T60" s="48">
         <f t="shared" si="1"/>
         <v>34.907842700795726</v>
       </c>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B61" s="44">
+      <c r="B61" s="35">
         <v>2550</v>
       </c>
-      <c r="C61" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B61)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C61" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B61)/'1.MOTOR DATA'!$D$14</f>
         <v>0.15</v>
       </c>
-      <c r="D61" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C61)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D61" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C61)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>62.556051915052713</v>
       </c>
-      <c r="E61" s="39">
-        <f>3*D61^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C61/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E61" s="47">
+        <f>3*D61^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C61/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>123.54771305950871</v>
       </c>
-      <c r="F61" s="45">
+      <c r="F61" s="48">
         <f t="shared" si="0"/>
         <v>32.991609955823648</v>
       </c>
-      <c r="P61" s="44">
+      <c r="P61" s="35">
         <v>2550</v>
       </c>
-      <c r="Q61" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P61)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q61" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P61)/'1.MOTOR DATA'!$D$14</f>
         <v>0.15</v>
       </c>
-      <c r="R61" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q61)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R61" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q61)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>60.282028722674859</v>
       </c>
-      <c r="S61" s="39">
-        <f>3*R61^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q61/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S61" s="47">
+        <f>3*R61^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q61/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>136.71017362440253</v>
       </c>
-      <c r="T61" s="45">
+      <c r="T61" s="48">
         <f t="shared" si="1"/>
         <v>36.506452555999694</v>
       </c>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B62" s="44">
+      <c r="B62" s="35">
         <v>2600</v>
       </c>
-      <c r="C62" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B62)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C62" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B62)/'1.MOTOR DATA'!$D$14</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="D62" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C62)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D62" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C62)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>60.135826395888671</v>
       </c>
-      <c r="E62" s="39">
-        <f>3*D62^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C62/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E62" s="47">
+        <f>3*D62^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C62/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>128.44438906749113</v>
       </c>
-      <c r="F62" s="45">
+      <c r="F62" s="48">
         <f t="shared" si="0"/>
         <v>34.971728921069136</v>
       </c>
-      <c r="P62" s="44">
+      <c r="P62" s="35">
         <v>2600</v>
       </c>
-      <c r="Q62" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P62)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q62" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P62)/'1.MOTOR DATA'!$D$14</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="R62" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q62)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R62" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q62)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>57.28081546922845</v>
       </c>
-      <c r="S62" s="39">
-        <f>3*R62^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q62/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S62" s="47">
+        <f>3*R62^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q62/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>138.86603083796516</v>
       </c>
-      <c r="T62" s="45">
+      <c r="T62" s="48">
         <f t="shared" si="1"/>
         <v>37.809243533856161</v>
       </c>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B63" s="44">
+      <c r="B63" s="35">
         <v>2650</v>
       </c>
-      <c r="C63" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B63)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C63" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B63)/'1.MOTOR DATA'!$D$14</f>
         <v>0.11666666666666667</v>
       </c>
-      <c r="D63" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C63)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D63" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C63)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>57.075025699078807</v>
       </c>
-      <c r="E63" s="39">
-        <f>3*D63^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C63/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E63" s="47">
+        <f>3*D63^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C63/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>132.2308375685808</v>
       </c>
-      <c r="F63" s="45">
+      <c r="F63" s="48">
         <f t="shared" si="0"/>
         <v>36.695029463040612</v>
       </c>
-      <c r="P63" s="44">
+      <c r="P63" s="35">
         <v>2650</v>
       </c>
-      <c r="Q63" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P63)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q63" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P63)/'1.MOTOR DATA'!$D$14</f>
         <v>0.11666666666666667</v>
       </c>
-      <c r="R63" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q63)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R63" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q63)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>53.62421553417736</v>
       </c>
-      <c r="S63" s="39">
-        <f>3*R63^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q63/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S63" s="47">
+        <f>3*R63^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q63/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>139.08858505583962</v>
       </c>
-      <c r="T63" s="45">
+      <c r="T63" s="48">
         <f t="shared" si="1"/>
         <v>38.598104802516858</v>
       </c>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B64" s="44">
+      <c r="B64" s="35">
         <v>2700</v>
       </c>
-      <c r="C64" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B64)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C64" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B64)/'1.MOTOR DATA'!$D$14</f>
         <v>0.1</v>
       </c>
-      <c r="D64" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C64)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D64" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C64)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>53.174452573821341</v>
       </c>
-      <c r="E64" s="39">
-        <f>3*D64^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C64/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E64" s="47">
+        <f>3*D64^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C64/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>133.9039419333416</v>
       </c>
-      <c r="F64" s="45">
+      <c r="F64" s="48">
         <f t="shared" si="0"/>
         <v>37.860447623805022</v>
       </c>
-      <c r="P64" s="44">
+      <c r="P64" s="35">
         <v>2700</v>
       </c>
-      <c r="Q64" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P64)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q64" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P64)/'1.MOTOR DATA'!$D$14</f>
         <v>0.1</v>
       </c>
-      <c r="R64" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q64)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R64" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q64)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>49.164815735964574</v>
       </c>
-      <c r="S64" s="39">
-        <f>3*R64^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q64/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S64" s="47">
+        <f>3*R64^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q64/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>136.40340336045165</v>
       </c>
-      <c r="T64" s="45">
+      <c r="T64" s="48">
         <f t="shared" si="1"/>
         <v>38.567153692965611</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B65" s="44">
+      <c r="B65" s="35">
         <v>2750</v>
       </c>
-      <c r="C65" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B65)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C65" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B65)/'1.MOTOR DATA'!$D$14</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D65" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C65)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D65" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C65)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>48.184574997504548</v>
       </c>
-      <c r="E65" s="39">
-        <f>3*D65^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C65/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E65" s="47">
+        <f>3*D65^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C65/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>131.94247261397172</v>
       </c>
-      <c r="F65" s="45">
+      <c r="F65" s="48">
         <f t="shared" si="0"/>
         <v>37.996704410548219</v>
       </c>
-      <c r="P65" s="44">
+      <c r="P65" s="35">
         <v>2750</v>
       </c>
-      <c r="Q65" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P65)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q65" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P65)/'1.MOTOR DATA'!$D$14</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="R65" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q65)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R65" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q65)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>43.743103175454884</v>
       </c>
-      <c r="S65" s="39">
-        <f>3*R65^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q65/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S65" s="47">
+        <f>3*R65^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q65/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>129.57368168153641</v>
       </c>
-      <c r="T65" s="45">
+      <c r="T65" s="48">
         <f t="shared" si="1"/>
         <v>37.314541593018902</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B66" s="44">
+      <c r="B66" s="35">
         <v>2800</v>
       </c>
-      <c r="C66" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B66)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C66" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B66)/'1.MOTOR DATA'!$D$14</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="D66" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C66)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D66" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C66)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>41.818657606229884</v>
       </c>
-      <c r="E66" s="39">
-        <f>3*D66^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C66/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E66" s="47">
+        <f>3*D66^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C66/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>124.22778492309162</v>
       </c>
-      <c r="F66" s="45">
+      <c r="F66" s="48">
         <f t="shared" si="0"/>
         <v>36.42548900537097</v>
       </c>
-      <c r="P66" s="44">
+      <c r="P66" s="35">
         <v>2800</v>
       </c>
-      <c r="Q66" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P66)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q66" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P66)/'1.MOTOR DATA'!$D$14</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="R66" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q66)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R66" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q66)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>37.209657688940851</v>
       </c>
-      <c r="S66" s="39">
-        <f>3*R66^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q66/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S66" s="47">
+        <f>3*R66^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q66/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>117.19767154443782</v>
       </c>
-      <c r="T66" s="45">
+      <c r="T66" s="48">
         <f t="shared" si="1"/>
         <v>34.364152101237977</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B67" s="44">
+      <c r="B67" s="35">
         <v>2850</v>
       </c>
-      <c r="C67" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B67)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C67" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B67)/'1.MOTOR DATA'!$D$14</f>
         <v>0.05</v>
       </c>
-      <c r="D67" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C67)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D67" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C67)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>33.803571045886827</v>
       </c>
-      <c r="E67" s="39">
-        <f>3*D67^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C67/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E67" s="47">
+        <f>3*D67^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C67/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>108.22870619888023</v>
       </c>
-      <c r="F67" s="45">
+      <c r="F67" s="48">
         <f t="shared" si="0"/>
         <v>32.300998288683374</v>
       </c>
-      <c r="P67" s="44">
+      <c r="P67" s="35">
         <v>2850</v>
       </c>
-      <c r="Q67" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P67)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q67" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P67)/'1.MOTOR DATA'!$D$14</f>
         <v>0.05</v>
       </c>
-      <c r="R67" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q67)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R67" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q67)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>29.466404790614099</v>
       </c>
-      <c r="S67" s="39">
-        <f>3*R67^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q67/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S67" s="47">
+        <f>3*R67^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q67/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>97.994267665477068</v>
       </c>
-      <c r="T67" s="45">
+      <c r="T67" s="48">
         <f t="shared" si="1"/>
         <v>29.246516782218588</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B68" s="44">
+      <c r="B68" s="35">
         <v>2900</v>
       </c>
-      <c r="C68" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B68)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C68" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B68)/'1.MOTOR DATA'!$D$14</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="D68" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C68)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D68" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C68)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>23.992188289309095</v>
       </c>
-      <c r="E68" s="39">
-        <f>3*D68^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C68/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E68" s="47">
+        <f>3*D68^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C68/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>81.780221767882949</v>
       </c>
-      <c r="F68" s="45">
+      <c r="F68" s="48">
         <f t="shared" si="0"/>
         <v>24.835613911776097</v>
       </c>
-      <c r="P68" s="44">
+      <c r="P68" s="35">
         <v>2900</v>
       </c>
-      <c r="Q68" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P68)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q68" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P68)/'1.MOTOR DATA'!$D$14</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="R68" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q68)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R68" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q68)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>20.526472641659041</v>
       </c>
-      <c r="S68" s="39">
-        <f>3*R68^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q68/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S68" s="47">
+        <f>3*R68^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q68/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>71.329023568804445</v>
       </c>
-      <c r="T68" s="45">
+      <c r="T68" s="48">
         <f t="shared" si="1"/>
         <v>21.661717855043957</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B69" s="44">
+      <c r="B69" s="35">
         <v>2950</v>
       </c>
-      <c r="C69" s="39">
-        <f>('1.MOTOR DATA'!$D$12-B69)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C69" s="47">
+        <f>('1.MOTOR DATA'!$D$14-B69)/'1.MOTOR DATA'!$D$14</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="D69" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C69)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D69" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/C69)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>12.531959097131995</v>
       </c>
-      <c r="E69" s="39">
-        <f>3*D69^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C69/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E69" s="47">
+        <f>3*D69^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/'5.PERFORMANCE'!C69/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>44.624821800976719</v>
       </c>
-      <c r="F69" s="45">
+      <c r="F69" s="48">
         <f t="shared" si="0"/>
         <v>13.785646213207373</v>
       </c>
-      <c r="P69" s="44">
+      <c r="P69" s="35">
         <v>2950</v>
       </c>
-      <c r="Q69" s="39">
-        <f>('1.MOTOR DATA'!$D$12-P69)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q69" s="47">
+        <f>('1.MOTOR DATA'!$D$14-P69)/'1.MOTOR DATA'!$D$14</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="R69" s="39">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q69)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R69" s="47">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/Q69)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>10.575941129741235</v>
       </c>
-      <c r="S69" s="39">
-        <f>3*R69^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q69/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S69" s="47">
+        <f>3*R69^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/'5.PERFORMANCE'!Q69/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>37.870904210472304</v>
       </c>
-      <c r="T69" s="45">
+      <c r="T69" s="48">
         <f t="shared" si="1"/>
         <v>11.699203854488218</v>
       </c>
     </row>
     <row r="70" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="50" t="s">
+      <c r="A70" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="B70" s="46">
+      <c r="B70" s="36">
         <v>3000</v>
       </c>
-      <c r="C70" s="47">
-        <f>('1.MOTOR DATA'!$D$12-B70)/'1.MOTOR DATA'!$D$12</f>
+      <c r="C70" s="49">
+        <f>('1.MOTOR DATA'!$D$14-B70)/'1.MOTOR DATA'!$D$14</f>
         <v>0</v>
       </c>
-      <c r="D70" s="47">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/0.000000000000001)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
+      <c r="D70" s="49">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('3.PARAMETERS (FROM TEST DATA)'!$D$7+'3.PARAMETERS (FROM TEST DATA)'!$D$17/0.000000000000001)^2+('3.PARAMETERS (FROM TEST DATA)'!$D$14+'3.PARAMETERS (FROM TEST DATA)'!$D$15)^2)</f>
         <v>7.6624503173364272E-13</v>
       </c>
-      <c r="E70" s="47">
-        <f>3*D70^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/0.000001/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="E70" s="49">
+        <f>3*D70^2*'3.PARAMETERS (FROM TEST DATA)'!$D$17/0.000001/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>2.7804984047763515E-21</v>
       </c>
-      <c r="F70" s="48">
+      <c r="F70" s="50">
         <f t="shared" si="0"/>
         <v>8.7351933617635254E-22</v>
       </c>
-      <c r="O70" s="50" t="s">
+      <c r="O70" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="P70" s="46">
+      <c r="P70" s="36">
         <v>3000</v>
       </c>
-      <c r="Q70" s="47">
-        <f>('1.MOTOR DATA'!$D$12-P70)/'1.MOTOR DATA'!$D$12</f>
+      <c r="Q70" s="49">
+        <f>('1.MOTOR DATA'!$D$14-P70)/'1.MOTOR DATA'!$D$14</f>
         <v>0</v>
       </c>
-      <c r="R70" s="47">
-        <f>'1.MOTOR DATA'!$D$10/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/0.0000001)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
+      <c r="R70" s="49">
+        <f>'1.MOTOR DATA'!$D$12/SQRT(('4.PARAMETERS ( FROM MOTOR DATA)'!$D$15+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/0.0000001)^2+('4.PARAMETERS ( FROM MOTOR DATA)'!$G$27+'4.PARAMETERS ( FROM MOTOR DATA)'!$G$28)^2)</f>
         <v>6.4304089401154597E-5</v>
       </c>
-      <c r="S70" s="47">
-        <f>3*R70^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/0.0000001/'1.MOTOR DATA'!$D$12*30/PI()</f>
+      <c r="S70" s="49">
+        <f>3*R70^2*'4.PARAMETERS ( FROM MOTOR DATA)'!$G$21/0.0000001/'1.MOTOR DATA'!$D$14*30/PI()</f>
         <v>2.3334234608344184E-4</v>
       </c>
-      <c r="T70" s="48">
+      <c r="T70" s="50">
         <f t="shared" si="1"/>
         <v>7.3306660022714792E-5</v>
       </c>
